--- a/Tiny-Certificates.xlsx
+++ b/Tiny-Certificates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Library/Mobile Documents/com~apple~CloudDocs/Documents/Study/NMIT/SDV602/DM Digger/DM-Digger---1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5248605-0A36-0346-9697-2E5F830553DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0407D775-A352-4A4C-9419-2B640C9B9C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$L$194</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$L$195</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="567">
   <si>
     <t>Application Type</t>
   </si>
@@ -1730,6 +1730,15 @@
   </si>
   <si>
     <t xml:space="preserve">Maude Matekitawhiti </t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>Fake</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -2089,10 +2098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M194"/>
+  <dimension ref="A1:M195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A185" sqref="A185"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2439,10 +2448,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>292</v>
+        <v>564</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>375</v>
+        <v>565</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>14</v>
@@ -2466,7 +2475,7 @@
         <v>4</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>4</v>
+        <v>566</v>
       </c>
       <c r="M10" s="1"/>
     </row>
@@ -2478,28 +2487,28 @@
         <v>3</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="6">
-        <v>44606</v>
+        <v>44474</v>
       </c>
       <c r="G11" s="6">
-        <v>44971</v>
+        <v>44839</v>
       </c>
       <c r="H11" s="6">
-        <v>44606</v>
+        <v>44474</v>
       </c>
       <c r="I11" s="6">
-        <v>44606</v>
+        <v>44474</v>
       </c>
       <c r="J11" s="6">
-        <v>44241</v>
+        <v>44474</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>4</v>
@@ -2514,31 +2523,31 @@
         <v>6</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" s="6">
-        <v>44510</v>
+        <v>44606</v>
       </c>
       <c r="G12" s="6">
-        <v>45578</v>
+        <v>44971</v>
       </c>
       <c r="H12" s="6">
-        <v>44117</v>
+        <v>44606</v>
       </c>
       <c r="I12" s="6">
-        <v>44510</v>
+        <v>44606</v>
       </c>
       <c r="J12" s="6">
-        <v>44515</v>
+        <v>44241</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>4</v>
@@ -2553,31 +2562,31 @@
         <v>6</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" s="6">
-        <v>44245</v>
+        <v>44510</v>
       </c>
       <c r="G13" s="6">
-        <v>45343</v>
+        <v>45578</v>
       </c>
       <c r="H13" s="6">
-        <v>44245</v>
+        <v>44117</v>
       </c>
       <c r="I13" s="6">
-        <v>44246</v>
+        <v>44510</v>
       </c>
       <c r="J13" s="6">
-        <v>44251</v>
+        <v>44515</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>4</v>
@@ -2592,31 +2601,31 @@
         <v>6</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" s="6">
-        <v>44412</v>
+        <v>44245</v>
       </c>
       <c r="G14" s="6">
-        <v>45460</v>
+        <v>45343</v>
       </c>
       <c r="H14" s="6">
-        <v>37425</v>
+        <v>44245</v>
       </c>
       <c r="I14" s="6">
-        <v>44414</v>
+        <v>44246</v>
       </c>
       <c r="J14" s="6">
-        <v>44478</v>
+        <v>44251</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>4</v>
@@ -2634,28 +2643,28 @@
         <v>5</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" s="6">
-        <v>44380</v>
+        <v>44412</v>
       </c>
       <c r="G15" s="6">
-        <v>45434</v>
+        <v>45460</v>
       </c>
       <c r="H15" s="6">
-        <v>42157</v>
+        <v>37425</v>
       </c>
       <c r="I15" s="6">
-        <v>44380</v>
+        <v>44414</v>
       </c>
       <c r="J15" s="6">
-        <v>44390</v>
+        <v>44478</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>4</v>
@@ -2673,28 +2682,28 @@
         <v>5</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>268</v>
+        <v>209</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>376</v>
+        <v>401</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F16" s="6">
-        <v>44270</v>
+        <v>44380</v>
       </c>
       <c r="G16" s="6">
-        <v>45356</v>
+        <v>45434</v>
       </c>
       <c r="H16" s="6">
-        <v>43895</v>
+        <v>42157</v>
       </c>
       <c r="I16" s="6">
-        <v>44272</v>
+        <v>44380</v>
       </c>
       <c r="J16" s="6">
-        <v>44273</v>
+        <v>44390</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>4</v>
@@ -2712,28 +2721,28 @@
         <v>5</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>402</v>
+        <v>376</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F17" s="6">
-        <v>44517</v>
+        <v>44270</v>
       </c>
       <c r="G17" s="6">
-        <v>45618</v>
+        <v>45356</v>
       </c>
       <c r="H17" s="6">
-        <v>43061</v>
+        <v>43895</v>
       </c>
       <c r="I17" s="6">
-        <v>44517</v>
+        <v>44272</v>
       </c>
       <c r="J17" s="6">
-        <v>44502</v>
+        <v>44273</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>4</v>
@@ -2751,28 +2760,28 @@
         <v>5</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>208</v>
+        <v>297</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F18" s="6">
-        <v>44431</v>
+        <v>44517</v>
       </c>
       <c r="G18" s="6">
-        <v>45420</v>
+        <v>45618</v>
       </c>
       <c r="H18" s="6">
-        <v>41767</v>
+        <v>43061</v>
       </c>
       <c r="I18" s="6">
-        <v>44431</v>
+        <v>44517</v>
       </c>
       <c r="J18" s="6">
-        <v>44431</v>
+        <v>44502</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>4</v>
@@ -2790,28 +2799,28 @@
         <v>5</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>299</v>
+        <v>208</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F19" s="6">
-        <v>44286</v>
+        <v>44431</v>
       </c>
       <c r="G19" s="6">
-        <v>45380</v>
+        <v>45420</v>
       </c>
       <c r="H19" s="6">
-        <v>42826</v>
+        <v>41767</v>
       </c>
       <c r="I19" s="6">
-        <v>44287</v>
+        <v>44431</v>
       </c>
       <c r="J19" s="6">
-        <v>44294</v>
+        <v>44431</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>4</v>
@@ -2826,31 +2835,31 @@
         <v>6</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F20" s="6">
-        <v>44442</v>
+        <v>44286</v>
       </c>
       <c r="G20" s="6">
-        <v>44807</v>
+        <v>45380</v>
       </c>
       <c r="H20" s="6">
-        <v>44442</v>
+        <v>42826</v>
       </c>
       <c r="I20" s="6">
-        <v>44442</v>
+        <v>44287</v>
       </c>
       <c r="J20" s="6">
-        <v>44364</v>
+        <v>44294</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>4</v>
@@ -2865,31 +2874,31 @@
         <v>6</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>245</v>
+        <v>300</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F21" s="6">
-        <v>44270</v>
+        <v>44442</v>
       </c>
       <c r="G21" s="6">
-        <v>45354</v>
+        <v>44807</v>
       </c>
       <c r="H21" s="6">
-        <v>36434</v>
+        <v>44442</v>
       </c>
       <c r="I21" s="6">
-        <v>44272</v>
+        <v>44442</v>
       </c>
       <c r="J21" s="6">
-        <v>44273</v>
+        <v>44364</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>4</v>
@@ -2904,31 +2913,31 @@
         <v>6</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>301</v>
+        <v>245</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F22" s="6">
-        <v>44306</v>
+        <v>44270</v>
       </c>
       <c r="G22" s="6">
-        <v>45322</v>
+        <v>45354</v>
       </c>
       <c r="H22" s="6">
-        <v>44306</v>
+        <v>36434</v>
       </c>
       <c r="I22" s="6">
-        <v>44306</v>
+        <v>44272</v>
       </c>
       <c r="J22" s="6">
-        <v>44306</v>
+        <v>44273</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>4</v>
@@ -2943,31 +2952,31 @@
         <v>6</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F23" s="6">
-        <v>44573</v>
+        <v>44306</v>
       </c>
       <c r="G23" s="6">
-        <v>45679</v>
+        <v>45322</v>
       </c>
       <c r="H23" s="6">
-        <v>43122</v>
+        <v>44306</v>
       </c>
       <c r="I23" s="6">
-        <v>44573</v>
+        <v>44306</v>
       </c>
       <c r="J23" s="6">
-        <v>44537</v>
+        <v>44306</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>4</v>
@@ -2985,28 +2994,28 @@
         <v>5</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F24" s="6">
-        <v>44364</v>
+        <v>44573</v>
       </c>
       <c r="G24" s="6">
-        <v>45462</v>
+        <v>45679</v>
       </c>
       <c r="H24" s="6">
-        <v>44001</v>
+        <v>43122</v>
       </c>
       <c r="I24" s="6">
-        <v>44365</v>
+        <v>44573</v>
       </c>
       <c r="J24" s="6">
-        <v>44350</v>
+        <v>44537</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>4</v>
@@ -3024,28 +3033,28 @@
         <v>5</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F25" s="6">
-        <v>44266</v>
+        <v>44364</v>
       </c>
       <c r="G25" s="6">
-        <v>45372</v>
+        <v>45462</v>
       </c>
       <c r="H25" s="6">
-        <v>42787</v>
+        <v>44001</v>
       </c>
       <c r="I25" s="6">
-        <v>44269</v>
+        <v>44365</v>
       </c>
       <c r="J25" s="6">
-        <v>44273</v>
+        <v>44350</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>4</v>
@@ -3063,28 +3072,28 @@
         <v>5</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F26" s="6">
-        <v>44472</v>
+        <v>44266</v>
       </c>
       <c r="G26" s="6">
-        <v>45577</v>
+        <v>45372</v>
       </c>
       <c r="H26" s="6">
-        <v>44116</v>
+        <v>42787</v>
       </c>
       <c r="I26" s="6">
-        <v>44472</v>
+        <v>44269</v>
       </c>
       <c r="J26" s="6">
-        <v>44461</v>
+        <v>44273</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>4</v>
@@ -3102,28 +3111,28 @@
         <v>5</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F27" s="6">
-        <v>44279</v>
+        <v>44472</v>
       </c>
       <c r="G27" s="6">
-        <v>45368</v>
+        <v>45577</v>
       </c>
       <c r="H27" s="6">
-        <v>42811</v>
+        <v>44116</v>
       </c>
       <c r="I27" s="6">
-        <v>44283</v>
+        <v>44472</v>
       </c>
       <c r="J27" s="6">
-        <v>44284</v>
+        <v>44461</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>4</v>
@@ -3141,28 +3150,28 @@
         <v>5</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>200</v>
+        <v>261</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F28" s="6">
-        <v>44510</v>
+        <v>44279</v>
       </c>
       <c r="G28" s="6">
-        <v>45480</v>
+        <v>45368</v>
       </c>
       <c r="H28" s="6">
-        <v>42923</v>
+        <v>42811</v>
       </c>
       <c r="I28" s="6">
-        <v>44510</v>
+        <v>44283</v>
       </c>
       <c r="J28" s="6">
-        <v>44515</v>
+        <v>44284</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>4</v>
@@ -3180,28 +3189,28 @@
         <v>5</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F29" s="6">
-        <v>44455</v>
+        <v>44510</v>
       </c>
       <c r="G29" s="6">
-        <v>45498</v>
+        <v>45480</v>
       </c>
       <c r="H29" s="6">
-        <v>39654</v>
+        <v>42923</v>
       </c>
       <c r="I29" s="6">
-        <v>44455</v>
+        <v>44510</v>
       </c>
       <c r="J29" s="6">
-        <v>44390</v>
+        <v>44515</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>4</v>
@@ -3219,28 +3228,28 @@
         <v>5</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>302</v>
+        <v>213</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F30" s="6">
-        <v>44510</v>
+        <v>44455</v>
       </c>
       <c r="G30" s="6">
-        <v>45592</v>
+        <v>45498</v>
       </c>
       <c r="H30" s="6">
-        <v>43419</v>
+        <v>39654</v>
       </c>
       <c r="I30" s="6">
-        <v>44510</v>
+        <v>44455</v>
       </c>
       <c r="J30" s="6">
-        <v>44487</v>
+        <v>44390</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>4</v>
@@ -3258,28 +3267,28 @@
         <v>5</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>228</v>
+        <v>302</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F31" s="6">
-        <v>44251</v>
+        <v>44510</v>
       </c>
       <c r="G31" s="6">
-        <v>45370</v>
+        <v>45592</v>
       </c>
       <c r="H31" s="6">
-        <v>43909</v>
+        <v>43419</v>
       </c>
       <c r="I31" s="6">
-        <v>44256</v>
+        <v>44510</v>
       </c>
       <c r="J31" s="6">
-        <v>44257</v>
+        <v>44487</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>4</v>
@@ -3294,31 +3303,31 @@
         <v>6</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>304</v>
+        <v>228</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F32" s="6">
-        <v>44540</v>
+        <v>44251</v>
       </c>
       <c r="G32" s="6">
-        <v>44905</v>
+        <v>45370</v>
       </c>
       <c r="H32" s="6">
-        <v>44540</v>
+        <v>43909</v>
       </c>
       <c r="I32" s="6">
-        <v>44540</v>
+        <v>44256</v>
       </c>
       <c r="J32" s="6">
-        <v>44467</v>
+        <v>44257</v>
       </c>
       <c r="K32" s="4" t="s">
         <v>4</v>
@@ -3336,28 +3345,28 @@
         <v>3</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>208</v>
+        <v>304</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F33" s="6">
-        <v>44221</v>
+        <v>44540</v>
       </c>
       <c r="G33" s="6">
-        <v>45304</v>
+        <v>44905</v>
       </c>
       <c r="H33" s="6">
-        <v>44221</v>
+        <v>44540</v>
       </c>
       <c r="I33" s="6">
-        <v>44221</v>
+        <v>44540</v>
       </c>
       <c r="J33" s="6">
-        <v>44223</v>
+        <v>44467</v>
       </c>
       <c r="K33" s="4" t="s">
         <v>4</v>
@@ -3375,28 +3384,28 @@
         <v>3</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>306</v>
+        <v>208</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F34" s="6">
-        <v>44351</v>
+        <v>44221</v>
       </c>
       <c r="G34" s="6">
-        <v>45468</v>
+        <v>45304</v>
       </c>
       <c r="H34" s="6">
-        <v>44351</v>
+        <v>44221</v>
       </c>
       <c r="I34" s="6">
-        <v>44355</v>
+        <v>44221</v>
       </c>
       <c r="J34" s="6">
-        <v>44368</v>
+        <v>44223</v>
       </c>
       <c r="K34" s="4" t="s">
         <v>4</v>
@@ -3411,31 +3420,31 @@
         <v>6</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F35" s="6">
-        <v>44259</v>
+        <v>44351</v>
       </c>
       <c r="G35" s="6">
-        <v>45354</v>
+        <v>45468</v>
       </c>
       <c r="H35" s="6">
-        <v>43893</v>
+        <v>44351</v>
       </c>
       <c r="I35" s="6">
-        <v>44260</v>
+        <v>44355</v>
       </c>
       <c r="J35" s="6">
-        <v>44260</v>
+        <v>44368</v>
       </c>
       <c r="K35" s="4" t="s">
         <v>4</v>
@@ -3453,26 +3462,28 @@
         <v>5</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>200</v>
+        <v>307</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F36" s="6">
-        <v>44246</v>
+        <v>44259</v>
       </c>
       <c r="G36" s="6">
-        <v>45325</v>
-      </c>
-      <c r="H36" s="6"/>
+        <v>45354</v>
+      </c>
+      <c r="H36" s="6">
+        <v>43893</v>
+      </c>
       <c r="I36" s="6">
-        <v>44246</v>
+        <v>44260</v>
       </c>
       <c r="J36" s="6">
-        <v>44251</v>
+        <v>44260</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>4</v>
@@ -3490,28 +3501,26 @@
         <v>5</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>308</v>
+        <v>200</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F37" s="6">
+        <v>44246</v>
+      </c>
+      <c r="G37" s="6">
+        <v>45325</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6">
+        <v>44246</v>
+      </c>
+      <c r="J37" s="6">
         <v>44251</v>
-      </c>
-      <c r="G37" s="6">
-        <v>45321</v>
-      </c>
-      <c r="H37" s="6">
-        <v>43860</v>
-      </c>
-      <c r="I37" s="6">
-        <v>44256</v>
-      </c>
-      <c r="J37" s="6">
-        <v>44257</v>
       </c>
       <c r="K37" s="4" t="s">
         <v>4</v>
@@ -3529,28 +3538,28 @@
         <v>5</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F38" s="6">
-        <v>44368</v>
+        <v>44251</v>
       </c>
       <c r="G38" s="6">
-        <v>45436</v>
+        <v>45321</v>
       </c>
       <c r="H38" s="6">
-        <v>42879</v>
+        <v>43860</v>
       </c>
       <c r="I38" s="6">
-        <v>44368</v>
+        <v>44256</v>
       </c>
       <c r="J38" s="6">
-        <v>44368</v>
+        <v>44257</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>4</v>
@@ -3568,28 +3577,28 @@
         <v>5</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>204</v>
+        <v>309</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F39" s="6">
-        <v>44573</v>
+        <v>44368</v>
       </c>
       <c r="G39" s="6">
-        <v>45639</v>
+        <v>45436</v>
       </c>
       <c r="H39" s="6">
-        <v>44148</v>
+        <v>42879</v>
       </c>
       <c r="I39" s="6">
-        <v>44573</v>
+        <v>44368</v>
       </c>
       <c r="J39" s="6">
-        <v>44505</v>
+        <v>44368</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>4</v>
@@ -3607,28 +3616,28 @@
         <v>5</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>255</v>
+        <v>204</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>377</v>
+        <v>424</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" s="6">
-        <v>44249</v>
+        <v>44573</v>
       </c>
       <c r="G40" s="6">
-        <v>45342</v>
+        <v>45639</v>
       </c>
       <c r="H40" s="6">
-        <v>42786</v>
+        <v>44148</v>
       </c>
       <c r="I40" s="6">
-        <v>44256</v>
+        <v>44573</v>
       </c>
       <c r="J40" s="6">
-        <v>44253</v>
+        <v>44505</v>
       </c>
       <c r="K40" s="4" t="s">
         <v>4</v>
@@ -3646,28 +3655,28 @@
         <v>5</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>201</v>
+        <v>255</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>425</v>
+        <v>377</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" s="6">
-        <v>44573</v>
+        <v>44249</v>
       </c>
       <c r="G41" s="6">
-        <v>45686</v>
+        <v>45342</v>
       </c>
       <c r="H41" s="6">
-        <v>44225</v>
+        <v>42786</v>
       </c>
       <c r="I41" s="6">
-        <v>44573</v>
+        <v>44256</v>
       </c>
       <c r="J41" s="6">
-        <v>44537</v>
+        <v>44253</v>
       </c>
       <c r="K41" s="4" t="s">
         <v>4</v>
@@ -3685,28 +3694,28 @@
         <v>5</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>310</v>
+        <v>201</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F42" s="6">
-        <v>44424</v>
+        <v>44573</v>
       </c>
       <c r="G42" s="6">
-        <v>45551</v>
+        <v>45686</v>
       </c>
       <c r="H42" s="6">
-        <v>41898</v>
+        <v>44225</v>
       </c>
       <c r="I42" s="6">
-        <v>44424</v>
+        <v>44573</v>
       </c>
       <c r="J42" s="6">
-        <v>44435</v>
+        <v>44537</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>4</v>
@@ -3724,28 +3733,28 @@
         <v>5</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F43" s="6">
-        <v>44610</v>
+        <v>44424</v>
       </c>
       <c r="G43" s="6">
-        <v>45722</v>
+        <v>45551</v>
       </c>
       <c r="H43" s="6">
-        <v>43167</v>
+        <v>41898</v>
       </c>
       <c r="I43" s="6">
-        <v>44610</v>
+        <v>44424</v>
       </c>
       <c r="J43" s="6">
-        <v>44230</v>
+        <v>44435</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>4</v>
@@ -3763,28 +3772,28 @@
         <v>5</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>219</v>
+        <v>311</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>378</v>
+        <v>427</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F44" s="6">
-        <v>44527</v>
+        <v>44610</v>
       </c>
       <c r="G44" s="6">
-        <v>45630</v>
+        <v>45722</v>
       </c>
       <c r="H44" s="6">
-        <v>44169</v>
+        <v>43167</v>
       </c>
       <c r="I44" s="6">
-        <v>44527</v>
+        <v>44610</v>
       </c>
       <c r="J44" s="6">
-        <v>44515</v>
+        <v>44230</v>
       </c>
       <c r="K44" s="4" t="s">
         <v>4</v>
@@ -3799,28 +3808,28 @@
         <v>6</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>428</v>
+        <v>378</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F45" s="6">
-        <v>44508</v>
+        <v>44527</v>
       </c>
       <c r="G45" s="6">
-        <v>44869</v>
+        <v>45630</v>
       </c>
       <c r="H45" s="6">
-        <v>44508</v>
+        <v>44169</v>
       </c>
       <c r="I45" s="6">
-        <v>44508</v>
+        <v>44527</v>
       </c>
       <c r="J45" s="6">
         <v>44515</v>
@@ -3838,31 +3847,31 @@
         <v>6</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F46" s="6">
-        <v>44414</v>
+        <v>44508</v>
       </c>
       <c r="G46" s="6">
-        <v>45483</v>
+        <v>44869</v>
       </c>
       <c r="H46" s="6">
-        <v>42926</v>
+        <v>44508</v>
       </c>
       <c r="I46" s="6">
-        <v>44415</v>
+        <v>44508</v>
       </c>
       <c r="J46" s="6">
-        <v>44417</v>
+        <v>44515</v>
       </c>
       <c r="K46" s="4" t="s">
         <v>4</v>
@@ -3880,28 +3889,28 @@
         <v>5</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>379</v>
+        <v>429</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F47" s="6">
-        <v>44384</v>
+        <v>44414</v>
       </c>
       <c r="G47" s="6">
-        <v>45465</v>
+        <v>45483</v>
       </c>
       <c r="H47" s="6">
-        <v>42908</v>
+        <v>42926</v>
       </c>
       <c r="I47" s="6">
-        <v>44354</v>
+        <v>44415</v>
       </c>
       <c r="J47" s="6">
-        <v>44390</v>
+        <v>44417</v>
       </c>
       <c r="K47" s="4" t="s">
         <v>4</v>
@@ -3919,28 +3928,28 @@
         <v>5</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>264</v>
+        <v>206</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>430</v>
+        <v>379</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F48" s="6">
-        <v>44279</v>
+        <v>44384</v>
       </c>
       <c r="G48" s="6">
-        <v>45368</v>
+        <v>45465</v>
       </c>
       <c r="H48" s="6">
-        <v>41715</v>
+        <v>42908</v>
       </c>
       <c r="I48" s="6">
-        <v>44281</v>
+        <v>44354</v>
       </c>
       <c r="J48" s="6">
-        <v>44284</v>
+        <v>44390</v>
       </c>
       <c r="K48" s="4" t="s">
         <v>4</v>
@@ -3955,31 +3964,31 @@
         <v>6</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>312</v>
+        <v>264</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F49" s="6">
-        <v>44617</v>
+        <v>44279</v>
       </c>
       <c r="G49" s="6">
-        <v>44982</v>
+        <v>45368</v>
       </c>
       <c r="H49" s="6">
-        <v>44617</v>
+        <v>41715</v>
       </c>
       <c r="I49" s="6">
-        <v>44617</v>
+        <v>44281</v>
       </c>
       <c r="J49" s="6">
-        <v>44509</v>
+        <v>44284</v>
       </c>
       <c r="K49" s="4" t="s">
         <v>4</v>
@@ -3994,31 +4003,31 @@
         <v>6</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>431</v>
+        <v>380</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F50" s="6">
-        <v>44355</v>
+        <v>44617</v>
       </c>
       <c r="G50" s="6">
-        <v>45442</v>
+        <v>44982</v>
       </c>
       <c r="H50" s="6">
-        <v>40693</v>
+        <v>44617</v>
       </c>
       <c r="I50" s="6">
-        <v>44360</v>
+        <v>44617</v>
       </c>
       <c r="J50" s="6">
-        <v>44368</v>
+        <v>44509</v>
       </c>
       <c r="K50" s="4" t="s">
         <v>4</v>
@@ -4036,28 +4045,28 @@
         <v>5</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F51" s="6">
-        <v>44250</v>
+        <v>44355</v>
       </c>
       <c r="G51" s="6">
-        <v>45322</v>
+        <v>45442</v>
       </c>
       <c r="H51" s="6">
-        <v>42400</v>
+        <v>40693</v>
       </c>
       <c r="I51" s="6">
-        <v>44256</v>
+        <v>44360</v>
       </c>
       <c r="J51" s="6">
-        <v>44257</v>
+        <v>44368</v>
       </c>
       <c r="K51" s="4" t="s">
         <v>4</v>
@@ -4072,31 +4081,31 @@
         <v>6</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>226</v>
+        <v>314</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F52" s="6">
-        <v>44449</v>
+        <v>44250</v>
       </c>
       <c r="G52" s="6">
-        <v>44814</v>
+        <v>45322</v>
       </c>
       <c r="H52" s="6">
-        <v>44449</v>
+        <v>42400</v>
       </c>
       <c r="I52" s="6">
-        <v>44449</v>
+        <v>44256</v>
       </c>
       <c r="J52" s="6">
-        <v>44376</v>
+        <v>44257</v>
       </c>
       <c r="K52" s="4" t="s">
         <v>4</v>
@@ -4111,31 +4120,31 @@
         <v>6</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>315</v>
+        <v>226</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F53" s="6">
-        <v>44550</v>
+        <v>44449</v>
       </c>
       <c r="G53" s="6">
-        <v>45626</v>
+        <v>44814</v>
       </c>
       <c r="H53" s="6">
-        <v>43069</v>
+        <v>44449</v>
       </c>
       <c r="I53" s="6">
-        <v>44550</v>
+        <v>44449</v>
       </c>
       <c r="J53" s="6">
-        <v>44512</v>
+        <v>44376</v>
       </c>
       <c r="K53" s="4" t="s">
         <v>4</v>
@@ -4150,31 +4159,31 @@
         <v>6</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>221</v>
+        <v>315</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F54" s="6">
-        <v>44470</v>
+        <v>44550</v>
       </c>
       <c r="G54" s="6">
-        <v>45556</v>
+        <v>45626</v>
       </c>
       <c r="H54" s="6">
-        <v>44470</v>
+        <v>43069</v>
       </c>
       <c r="I54" s="6">
-        <v>44472</v>
+        <v>44550</v>
       </c>
       <c r="J54" s="6">
-        <v>44454</v>
+        <v>44512</v>
       </c>
       <c r="K54" s="4" t="s">
         <v>4</v>
@@ -4192,28 +4201,28 @@
         <v>3</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F55" s="6">
-        <v>44306</v>
+        <v>44470</v>
       </c>
       <c r="G55" s="6">
-        <v>45403</v>
+        <v>45556</v>
       </c>
       <c r="H55" s="6">
-        <v>44306</v>
+        <v>44470</v>
       </c>
       <c r="I55" s="6">
-        <v>44306</v>
+        <v>44472</v>
       </c>
       <c r="J55" s="6">
-        <v>44299</v>
+        <v>44454</v>
       </c>
       <c r="K55" s="4" t="s">
         <v>4</v>
@@ -4228,31 +4237,31 @@
         <v>6</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F56" s="6">
-        <v>44454</v>
+        <v>44306</v>
       </c>
       <c r="G56" s="6">
-        <v>45565</v>
+        <v>45403</v>
       </c>
       <c r="H56" s="6">
-        <v>44104</v>
+        <v>44306</v>
       </c>
       <c r="I56" s="6">
-        <v>44454</v>
+        <v>44306</v>
       </c>
       <c r="J56" s="6">
-        <v>44454</v>
+        <v>44299</v>
       </c>
       <c r="K56" s="4" t="s">
         <v>4</v>
@@ -4270,28 +4279,28 @@
         <v>5</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>316</v>
+        <v>256</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F57" s="6">
-        <v>44510</v>
+        <v>44454</v>
       </c>
       <c r="G57" s="6">
-        <v>45603</v>
+        <v>45565</v>
       </c>
       <c r="H57" s="6">
-        <v>43046</v>
+        <v>44104</v>
       </c>
       <c r="I57" s="6">
-        <v>44510</v>
+        <v>44454</v>
       </c>
       <c r="J57" s="6">
-        <v>44515</v>
+        <v>44454</v>
       </c>
       <c r="K57" s="4" t="s">
         <v>4</v>
@@ -4309,28 +4318,28 @@
         <v>5</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>203</v>
+        <v>316</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>381</v>
+        <v>438</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F58" s="6">
-        <v>44547</v>
+        <v>44510</v>
       </c>
       <c r="G58" s="6">
-        <v>45627</v>
+        <v>45603</v>
       </c>
       <c r="H58" s="6">
-        <v>43070</v>
+        <v>43046</v>
       </c>
       <c r="I58" s="6">
-        <v>44547</v>
+        <v>44510</v>
       </c>
       <c r="J58" s="6">
-        <v>44508</v>
+        <v>44515</v>
       </c>
       <c r="K58" s="4" t="s">
         <v>4</v>
@@ -4345,31 +4354,31 @@
         <v>6</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>266</v>
+        <v>203</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>439</v>
+        <v>381</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F59" s="6">
         <v>44547</v>
       </c>
       <c r="G59" s="6">
-        <v>44911</v>
+        <v>45627</v>
       </c>
       <c r="H59" s="6">
-        <v>44547</v>
+        <v>43070</v>
       </c>
       <c r="I59" s="6">
         <v>44547</v>
       </c>
       <c r="J59" s="6">
-        <v>44515</v>
+        <v>44508</v>
       </c>
       <c r="K59" s="4" t="s">
         <v>4</v>
@@ -4384,28 +4393,28 @@
         <v>6</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>317</v>
+        <v>266</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F60" s="6">
-        <v>44510</v>
+        <v>44547</v>
       </c>
       <c r="G60" s="6">
-        <v>45585</v>
+        <v>44911</v>
       </c>
       <c r="H60" s="6">
-        <v>44124</v>
+        <v>44547</v>
       </c>
       <c r="I60" s="6">
-        <v>44510</v>
+        <v>44547</v>
       </c>
       <c r="J60" s="6">
         <v>44515</v>
@@ -4423,31 +4432,31 @@
         <v>6</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F61" s="6">
-        <v>44349</v>
+        <v>44510</v>
       </c>
       <c r="G61" s="6">
-        <v>45420</v>
+        <v>45585</v>
       </c>
       <c r="H61" s="6">
-        <v>44349</v>
+        <v>44124</v>
       </c>
       <c r="I61" s="6">
-        <v>44354</v>
+        <v>44510</v>
       </c>
       <c r="J61" s="6">
-        <v>44321</v>
+        <v>44515</v>
       </c>
       <c r="K61" s="4" t="s">
         <v>4</v>
@@ -4465,28 +4474,28 @@
         <v>3</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F62" s="6">
-        <v>44585</v>
+        <v>44349</v>
       </c>
       <c r="G62" s="6">
-        <v>44950</v>
+        <v>45420</v>
       </c>
       <c r="H62" s="6">
-        <v>44585</v>
+        <v>44349</v>
       </c>
       <c r="I62" s="6">
-        <v>44585</v>
+        <v>44354</v>
       </c>
       <c r="J62" s="6">
-        <v>44533</v>
+        <v>44321</v>
       </c>
       <c r="K62" s="4" t="s">
         <v>4</v>
@@ -4501,31 +4510,31 @@
         <v>6</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>551</v>
+        <v>320</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>383</v>
+        <v>442</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F63" s="6">
-        <v>44230</v>
+        <v>44585</v>
       </c>
       <c r="G63" s="6">
-        <v>45283</v>
+        <v>44950</v>
       </c>
       <c r="H63" s="6">
-        <v>43761</v>
+        <v>44585</v>
       </c>
       <c r="I63" s="6">
-        <v>44246</v>
+        <v>44585</v>
       </c>
       <c r="J63" s="6">
-        <v>44251</v>
+        <v>44533</v>
       </c>
       <c r="K63" s="4" t="s">
         <v>4</v>
@@ -4540,31 +4549,31 @@
         <v>6</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>224</v>
+        <v>551</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>443</v>
+        <v>383</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F64" s="6">
-        <v>44510</v>
+        <v>44230</v>
       </c>
       <c r="G64" s="6">
-        <v>44875</v>
+        <v>45283</v>
       </c>
       <c r="H64" s="6">
-        <v>44510</v>
+        <v>43761</v>
       </c>
       <c r="I64" s="6">
-        <v>44510</v>
+        <v>44246</v>
       </c>
       <c r="J64" s="6">
-        <v>44473</v>
+        <v>44251</v>
       </c>
       <c r="K64" s="4" t="s">
         <v>4</v>
@@ -4579,31 +4588,31 @@
         <v>6</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>265</v>
+        <v>224</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>382</v>
+        <v>443</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F65" s="6">
-        <v>44600</v>
+        <v>44510</v>
       </c>
       <c r="G65" s="6">
-        <v>45633</v>
+        <v>44875</v>
       </c>
       <c r="H65" s="6">
-        <v>40889</v>
+        <v>44510</v>
       </c>
       <c r="I65" s="6">
-        <v>44595</v>
+        <v>44510</v>
       </c>
       <c r="J65" s="6">
-        <v>44523</v>
+        <v>44473</v>
       </c>
       <c r="K65" s="4" t="s">
         <v>4</v>
@@ -4621,28 +4630,28 @@
         <v>5</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>321</v>
+        <v>265</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>444</v>
+        <v>382</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F66" s="6">
-        <v>44510</v>
+        <v>44600</v>
       </c>
       <c r="G66" s="6">
-        <v>45602</v>
+        <v>45633</v>
       </c>
       <c r="H66" s="6">
-        <v>44141</v>
+        <v>40889</v>
       </c>
       <c r="I66" s="6">
-        <v>44510</v>
+        <v>44595</v>
       </c>
       <c r="J66" s="6">
-        <v>44515</v>
+        <v>44523</v>
       </c>
       <c r="K66" s="4" t="s">
         <v>4</v>
@@ -4660,28 +4669,28 @@
         <v>5</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>206</v>
+        <v>321</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F67" s="6">
-        <v>44302</v>
+        <v>44510</v>
       </c>
       <c r="G67" s="6">
-        <v>45417</v>
+        <v>45602</v>
       </c>
       <c r="H67" s="6">
-        <v>41764</v>
+        <v>44141</v>
       </c>
       <c r="I67" s="6">
-        <v>44303</v>
+        <v>44510</v>
       </c>
       <c r="J67" s="6">
-        <v>44294</v>
+        <v>44515</v>
       </c>
       <c r="K67" s="4" t="s">
         <v>4</v>
@@ -4696,31 +4705,31 @@
         <v>6</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F68" s="6">
-        <v>44510</v>
+        <v>44302</v>
       </c>
       <c r="G68" s="6">
-        <v>44875</v>
+        <v>45417</v>
       </c>
       <c r="H68" s="6">
-        <v>44510</v>
+        <v>41764</v>
       </c>
       <c r="I68" s="6">
-        <v>44510</v>
+        <v>44303</v>
       </c>
       <c r="J68" s="6">
-        <v>44464</v>
+        <v>44294</v>
       </c>
       <c r="K68" s="4" t="s">
         <v>4</v>
@@ -4738,28 +4747,28 @@
         <v>3</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>322</v>
+        <v>200</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F69" s="6">
-        <v>44474</v>
+        <v>44510</v>
       </c>
       <c r="G69" s="6">
-        <v>44839</v>
+        <v>44875</v>
       </c>
       <c r="H69" s="6">
-        <v>44474</v>
+        <v>44510</v>
       </c>
       <c r="I69" s="6">
-        <v>44474</v>
+        <v>44510</v>
       </c>
       <c r="J69" s="6">
-        <v>44485</v>
+        <v>44464</v>
       </c>
       <c r="K69" s="4" t="s">
         <v>4</v>
@@ -4774,29 +4783,31 @@
         <v>6</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F70" s="6">
-        <v>44456</v>
+        <v>44474</v>
       </c>
       <c r="G70" s="6">
-        <v>45521</v>
-      </c>
-      <c r="H70" s="6"/>
+        <v>44839</v>
+      </c>
+      <c r="H70" s="6">
+        <v>44474</v>
+      </c>
       <c r="I70" s="6">
-        <v>44456</v>
+        <v>44474</v>
       </c>
       <c r="J70" s="6">
-        <v>44406</v>
+        <v>44485</v>
       </c>
       <c r="K70" s="4" t="s">
         <v>4</v>
@@ -4814,28 +4825,26 @@
         <v>5</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F71" s="6">
-        <v>44302</v>
+        <v>44456</v>
       </c>
       <c r="G71" s="6">
-        <v>45399</v>
-      </c>
-      <c r="H71" s="6">
-        <v>41746</v>
-      </c>
+        <v>45521</v>
+      </c>
+      <c r="H71" s="6"/>
       <c r="I71" s="6">
-        <v>44303</v>
+        <v>44456</v>
       </c>
       <c r="J71" s="6">
-        <v>44294</v>
+        <v>44406</v>
       </c>
       <c r="K71" s="4" t="s">
         <v>4</v>
@@ -4853,28 +4862,28 @@
         <v>5</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>323</v>
+        <v>243</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F72" s="6">
-        <v>44456</v>
+        <v>44302</v>
       </c>
       <c r="G72" s="6">
-        <v>45466</v>
+        <v>45399</v>
       </c>
       <c r="H72" s="6">
-        <v>42909</v>
+        <v>41746</v>
       </c>
       <c r="I72" s="6">
-        <v>44456</v>
+        <v>44303</v>
       </c>
       <c r="J72" s="6">
-        <v>44320</v>
+        <v>44294</v>
       </c>
       <c r="K72" s="4" t="s">
         <v>4</v>
@@ -4889,31 +4898,31 @@
         <v>6</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F73" s="6">
-        <v>44441</v>
+        <v>44456</v>
       </c>
       <c r="G73" s="6">
-        <v>44806</v>
+        <v>45466</v>
       </c>
       <c r="H73" s="6">
-        <v>44441</v>
+        <v>42909</v>
       </c>
       <c r="I73" s="6">
-        <v>44441</v>
+        <v>44456</v>
       </c>
       <c r="J73" s="6">
-        <v>44454</v>
+        <v>44320</v>
       </c>
       <c r="K73" s="4" t="s">
         <v>4</v>
@@ -4928,31 +4937,31 @@
         <v>6</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>200</v>
+        <v>324</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F74" s="6">
+        <v>44441</v>
+      </c>
+      <c r="G74" s="6">
+        <v>44806</v>
+      </c>
+      <c r="H74" s="6">
+        <v>44441</v>
+      </c>
+      <c r="I74" s="6">
+        <v>44441</v>
+      </c>
+      <c r="J74" s="6">
         <v>44454</v>
-      </c>
-      <c r="G74" s="6">
-        <v>45480</v>
-      </c>
-      <c r="H74" s="6">
-        <v>43291</v>
-      </c>
-      <c r="I74" s="6">
-        <v>44454</v>
-      </c>
-      <c r="J74" s="6">
-        <v>44358</v>
       </c>
       <c r="K74" s="4" t="s">
         <v>4</v>
@@ -4967,31 +4976,31 @@
         <v>6</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>287</v>
+        <v>200</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F75" s="6">
-        <v>44523</v>
+        <v>44454</v>
       </c>
       <c r="G75" s="6">
-        <v>44888</v>
+        <v>45480</v>
       </c>
       <c r="H75" s="6">
-        <v>44523</v>
+        <v>43291</v>
       </c>
       <c r="I75" s="6">
-        <v>44523</v>
+        <v>44454</v>
       </c>
       <c r="J75" s="6">
-        <v>44482</v>
+        <v>44358</v>
       </c>
       <c r="K75" s="4" t="s">
         <v>4</v>
@@ -5006,31 +5015,31 @@
         <v>6</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>325</v>
+        <v>287</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F76" s="6">
-        <v>44380</v>
+        <v>44523</v>
       </c>
       <c r="G76" s="6">
-        <v>45426</v>
+        <v>44888</v>
       </c>
       <c r="H76" s="6">
-        <v>41773</v>
+        <v>44523</v>
       </c>
       <c r="I76" s="6">
-        <v>44380</v>
+        <v>44523</v>
       </c>
       <c r="J76" s="6">
-        <v>44390</v>
+        <v>44482</v>
       </c>
       <c r="K76" s="4" t="s">
         <v>4</v>
@@ -5048,28 +5057,28 @@
         <v>5</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F77" s="6">
-        <v>44431</v>
+        <v>44380</v>
       </c>
       <c r="G77" s="6">
-        <v>45551</v>
+        <v>45426</v>
       </c>
       <c r="H77" s="6">
-        <v>41898</v>
+        <v>41773</v>
       </c>
       <c r="I77" s="6">
-        <v>44431</v>
+        <v>44380</v>
       </c>
       <c r="J77" s="6">
-        <v>44417</v>
+        <v>44390</v>
       </c>
       <c r="K77" s="4" t="s">
         <v>4</v>
@@ -5087,28 +5096,28 @@
         <v>5</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>227</v>
+        <v>326</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>384</v>
+        <v>455</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F78" s="6">
-        <v>44472</v>
+        <v>44431</v>
       </c>
       <c r="G78" s="6">
-        <v>45552</v>
+        <v>45551</v>
       </c>
       <c r="H78" s="6">
-        <v>37516</v>
+        <v>41898</v>
       </c>
       <c r="I78" s="6">
-        <v>44472</v>
+        <v>44431</v>
       </c>
       <c r="J78" s="6">
-        <v>44448</v>
+        <v>44417</v>
       </c>
       <c r="K78" s="4" t="s">
         <v>4</v>
@@ -5123,31 +5132,31 @@
         <v>6</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>327</v>
+        <v>227</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>456</v>
+        <v>384</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F79" s="6">
-        <v>44467</v>
+        <v>44472</v>
       </c>
       <c r="G79" s="6">
-        <v>44832</v>
+        <v>45552</v>
       </c>
       <c r="H79" s="6">
-        <v>44467</v>
+        <v>37516</v>
       </c>
       <c r="I79" s="6">
-        <v>44467</v>
+        <v>44472</v>
       </c>
       <c r="J79" s="6">
-        <v>44398</v>
+        <v>44448</v>
       </c>
       <c r="K79" s="4" t="s">
         <v>4</v>
@@ -5162,31 +5171,31 @@
         <v>6</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F80" s="6">
-        <v>44477</v>
+        <v>44467</v>
       </c>
       <c r="G80" s="6">
-        <v>45605</v>
+        <v>44832</v>
       </c>
       <c r="H80" s="6">
-        <v>40856</v>
+        <v>44467</v>
       </c>
       <c r="I80" s="6">
-        <v>44477</v>
+        <v>44467</v>
       </c>
       <c r="J80" s="6">
-        <v>44485</v>
+        <v>44398</v>
       </c>
       <c r="K80" s="4" t="s">
         <v>4</v>
@@ -5201,31 +5210,31 @@
         <v>6</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>206</v>
+        <v>328</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F81" s="6">
-        <v>44508</v>
+        <v>44477</v>
       </c>
       <c r="G81" s="6">
-        <v>45598</v>
+        <v>45605</v>
       </c>
       <c r="H81" s="6">
-        <v>44508</v>
+        <v>40856</v>
       </c>
       <c r="I81" s="6">
-        <v>44508</v>
+        <v>44477</v>
       </c>
       <c r="J81" s="6">
-        <v>44515</v>
+        <v>44485</v>
       </c>
       <c r="K81" s="4" t="s">
         <v>4</v>
@@ -5240,29 +5249,31 @@
         <v>6</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F82" s="6">
-        <v>43787</v>
+        <v>44508</v>
       </c>
       <c r="G82" s="6">
-        <v>44906</v>
-      </c>
-      <c r="H82" s="6"/>
+        <v>45598</v>
+      </c>
+      <c r="H82" s="6">
+        <v>44508</v>
+      </c>
       <c r="I82" s="6">
-        <v>44240</v>
+        <v>44508</v>
       </c>
       <c r="J82" s="6">
-        <v>44242</v>
+        <v>44515</v>
       </c>
       <c r="K82" s="4" t="s">
         <v>4</v>
@@ -5280,28 +5291,26 @@
         <v>5</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>252</v>
+        <v>200</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F83" s="6">
-        <v>44326</v>
+        <v>43787</v>
       </c>
       <c r="G83" s="6">
-        <v>45390</v>
-      </c>
-      <c r="H83" s="6">
-        <v>40641</v>
-      </c>
+        <v>44906</v>
+      </c>
+      <c r="H83" s="6"/>
       <c r="I83" s="6">
-        <v>44326</v>
+        <v>44240</v>
       </c>
       <c r="J83" s="6">
-        <v>44293</v>
+        <v>44242</v>
       </c>
       <c r="K83" s="4" t="s">
         <v>4</v>
@@ -5319,28 +5328,28 @@
         <v>5</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>552</v>
+        <v>252</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>556</v>
+        <v>460</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F84" s="6">
-        <v>44246</v>
+        <v>44326</v>
       </c>
       <c r="G84" s="6">
-        <v>45336</v>
+        <v>45390</v>
       </c>
       <c r="H84" s="6">
-        <v>43875</v>
+        <v>40641</v>
       </c>
       <c r="I84" s="6">
-        <v>44246</v>
+        <v>44326</v>
       </c>
       <c r="J84" s="6">
-        <v>44251</v>
+        <v>44293</v>
       </c>
       <c r="K84" s="4" t="s">
         <v>4</v>
@@ -5358,22 +5367,22 @@
         <v>5</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>461</v>
+        <v>556</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F85" s="6">
         <v>44246</v>
       </c>
       <c r="G85" s="6">
-        <v>45367</v>
+        <v>45336</v>
       </c>
       <c r="H85" s="6">
-        <v>43906</v>
+        <v>43875</v>
       </c>
       <c r="I85" s="6">
         <v>44246</v>
@@ -5394,31 +5403,31 @@
         <v>6</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>271</v>
+        <v>553</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F86" s="6">
-        <v>44501</v>
+        <v>44246</v>
       </c>
       <c r="G86" s="6">
-        <v>44866</v>
+        <v>45367</v>
       </c>
       <c r="H86" s="6">
-        <v>44501</v>
+        <v>43906</v>
       </c>
       <c r="I86" s="6">
-        <v>44522</v>
+        <v>44246</v>
       </c>
       <c r="J86" s="6">
-        <v>44370</v>
+        <v>44251</v>
       </c>
       <c r="K86" s="4" t="s">
         <v>4</v>
@@ -5433,31 +5442,31 @@
         <v>6</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F87" s="6">
-        <v>44384</v>
+        <v>44501</v>
       </c>
       <c r="G87" s="6">
-        <v>45427</v>
+        <v>44866</v>
       </c>
       <c r="H87" s="6">
-        <v>39583</v>
+        <v>44501</v>
       </c>
       <c r="I87" s="6">
-        <v>44384</v>
+        <v>44522</v>
       </c>
       <c r="J87" s="6">
-        <v>44390</v>
+        <v>44370</v>
       </c>
       <c r="K87" s="4" t="s">
         <v>4</v>
@@ -5475,28 +5484,28 @@
         <v>5</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>240</v>
+        <v>284</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F88" s="6">
-        <v>44344</v>
+        <v>44384</v>
       </c>
       <c r="G88" s="6">
-        <v>45425</v>
+        <v>45427</v>
       </c>
       <c r="H88" s="6">
-        <v>40676</v>
+        <v>39583</v>
       </c>
       <c r="I88" s="6">
-        <v>44345</v>
+        <v>44384</v>
       </c>
       <c r="J88" s="6">
-        <v>44320</v>
+        <v>44390</v>
       </c>
       <c r="K88" s="4" t="s">
         <v>4</v>
@@ -5514,28 +5523,28 @@
         <v>5</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F89" s="6">
-        <v>44260</v>
+        <v>44344</v>
       </c>
       <c r="G89" s="6">
-        <v>45360</v>
+        <v>45425</v>
       </c>
       <c r="H89" s="6">
-        <v>42803</v>
+        <v>40676</v>
       </c>
       <c r="I89" s="6">
-        <v>44260</v>
+        <v>44345</v>
       </c>
       <c r="J89" s="6">
-        <v>44260</v>
+        <v>44320</v>
       </c>
       <c r="K89" s="4" t="s">
         <v>4</v>
@@ -5550,31 +5559,31 @@
         <v>6</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>295</v>
+        <v>217</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F90" s="6">
-        <v>44517</v>
+        <v>44260</v>
       </c>
       <c r="G90" s="6">
-        <v>44881</v>
+        <v>45360</v>
       </c>
       <c r="H90" s="6">
-        <v>44517</v>
+        <v>42803</v>
       </c>
       <c r="I90" s="6">
-        <v>44517</v>
+        <v>44260</v>
       </c>
       <c r="J90" s="6">
-        <v>44517</v>
+        <v>44260</v>
       </c>
       <c r="K90" s="4" t="s">
         <v>4</v>
@@ -5592,28 +5601,28 @@
         <v>3</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>330</v>
+        <v>295</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F91" s="6">
-        <v>44442</v>
+        <v>44517</v>
       </c>
       <c r="G91" s="6">
-        <v>44807</v>
+        <v>44881</v>
       </c>
       <c r="H91" s="6">
-        <v>44442</v>
+        <v>44517</v>
       </c>
       <c r="I91" s="6">
-        <v>44442</v>
+        <v>44517</v>
       </c>
       <c r="J91" s="6">
-        <v>44347</v>
+        <v>44517</v>
       </c>
       <c r="K91" s="4" t="s">
         <v>4</v>
@@ -5628,31 +5637,31 @@
         <v>6</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>210</v>
+        <v>330</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F92" s="6">
-        <v>44456</v>
+        <v>44442</v>
       </c>
       <c r="G92" s="6">
-        <v>45568</v>
+        <v>44807</v>
       </c>
       <c r="H92" s="6">
-        <v>42999</v>
+        <v>44442</v>
       </c>
       <c r="I92" s="6">
-        <v>44456</v>
+        <v>44442</v>
       </c>
       <c r="J92" s="6">
-        <v>44420</v>
+        <v>44347</v>
       </c>
       <c r="K92" s="4" t="s">
         <v>4</v>
@@ -5667,31 +5676,31 @@
         <v>6</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>257</v>
+        <v>210</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F93" s="6">
-        <v>44508</v>
+        <v>44456</v>
       </c>
       <c r="G93" s="6">
-        <v>44869</v>
+        <v>45568</v>
       </c>
       <c r="H93" s="6">
-        <v>44508</v>
+        <v>42999</v>
       </c>
       <c r="I93" s="6">
-        <v>44508</v>
+        <v>44456</v>
       </c>
       <c r="J93" s="6">
-        <v>44473</v>
+        <v>44420</v>
       </c>
       <c r="K93" s="4" t="s">
         <v>4</v>
@@ -5709,28 +5718,28 @@
         <v>3</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>331</v>
+        <v>257</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F94" s="6">
-        <v>44460</v>
+        <v>44508</v>
       </c>
       <c r="G94" s="6">
-        <v>44825</v>
+        <v>44869</v>
       </c>
       <c r="H94" s="6">
-        <v>44460</v>
+        <v>44508</v>
       </c>
       <c r="I94" s="6">
-        <v>44460</v>
+        <v>44508</v>
       </c>
       <c r="J94" s="6">
-        <v>44341</v>
+        <v>44473</v>
       </c>
       <c r="K94" s="4" t="s">
         <v>4</v>
@@ -5745,31 +5754,31 @@
         <v>6</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>230</v>
+        <v>331</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>385</v>
+        <v>470</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F95" s="6">
-        <v>44585</v>
+        <v>44460</v>
       </c>
       <c r="G95" s="6">
-        <v>45624</v>
+        <v>44825</v>
       </c>
       <c r="H95" s="6">
-        <v>43067</v>
+        <v>44460</v>
       </c>
       <c r="I95" s="6">
-        <v>44585</v>
+        <v>44460</v>
       </c>
       <c r="J95" s="6">
-        <v>44490</v>
+        <v>44341</v>
       </c>
       <c r="K95" s="4" t="s">
         <v>4</v>
@@ -5787,28 +5796,28 @@
         <v>5</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>471</v>
+        <v>385</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F96" s="6">
-        <v>44243</v>
+        <v>44585</v>
       </c>
       <c r="G96" s="6">
-        <v>45271</v>
+        <v>45624</v>
       </c>
       <c r="H96" s="6">
-        <v>43810</v>
+        <v>43067</v>
       </c>
       <c r="I96" s="6">
-        <v>44243</v>
+        <v>44585</v>
       </c>
       <c r="J96" s="6">
-        <v>44245</v>
+        <v>44490</v>
       </c>
       <c r="K96" s="4" t="s">
         <v>4</v>
@@ -5826,26 +5835,28 @@
         <v>5</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F97" s="6">
-        <v>44417</v>
+        <v>44243</v>
       </c>
       <c r="G97" s="6">
-        <v>45509</v>
-      </c>
-      <c r="H97" s="6"/>
+        <v>45271</v>
+      </c>
+      <c r="H97" s="6">
+        <v>43810</v>
+      </c>
       <c r="I97" s="6">
-        <v>44418</v>
+        <v>44243</v>
       </c>
       <c r="J97" s="6">
-        <v>44399</v>
+        <v>44245</v>
       </c>
       <c r="K97" s="4" t="s">
         <v>4</v>
@@ -5860,31 +5871,29 @@
         <v>6</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F98" s="6">
-        <v>44455</v>
+        <v>44417</v>
       </c>
       <c r="G98" s="6">
-        <v>44820</v>
-      </c>
-      <c r="H98" s="6">
-        <v>44455</v>
-      </c>
+        <v>45509</v>
+      </c>
+      <c r="H98" s="6"/>
       <c r="I98" s="6">
-        <v>44455</v>
+        <v>44418</v>
       </c>
       <c r="J98" s="6">
-        <v>44428</v>
+        <v>44399</v>
       </c>
       <c r="K98" s="4" t="s">
         <v>4</v>
@@ -5899,31 +5908,31 @@
         <v>6</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F99" s="6">
-        <v>44472</v>
+        <v>44455</v>
       </c>
       <c r="G99" s="6">
-        <v>45578</v>
+        <v>44820</v>
       </c>
       <c r="H99" s="6">
-        <v>39765</v>
+        <v>44455</v>
       </c>
       <c r="I99" s="6">
-        <v>44472</v>
+        <v>44455</v>
       </c>
       <c r="J99" s="6">
-        <v>44460</v>
+        <v>44428</v>
       </c>
       <c r="K99" s="4" t="s">
         <v>4</v>
@@ -5938,31 +5947,31 @@
         <v>6</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>246</v>
+        <v>294</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F100" s="6">
-        <v>44537</v>
+        <v>44472</v>
       </c>
       <c r="G100" s="6">
-        <v>44902</v>
+        <v>45578</v>
       </c>
       <c r="H100" s="6">
-        <v>44537</v>
+        <v>39765</v>
       </c>
       <c r="I100" s="6">
-        <v>44537</v>
+        <v>44472</v>
       </c>
       <c r="J100" s="6">
-        <v>44242</v>
+        <v>44460</v>
       </c>
       <c r="K100" s="4" t="s">
         <v>4</v>
@@ -5980,28 +5989,28 @@
         <v>3</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>332</v>
+        <v>246</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F101" s="6">
-        <v>44527</v>
+        <v>44537</v>
       </c>
       <c r="G101" s="6">
-        <v>44892</v>
+        <v>44902</v>
       </c>
       <c r="H101" s="6">
-        <v>44527</v>
+        <v>44537</v>
       </c>
       <c r="I101" s="6">
-        <v>44527</v>
+        <v>44537</v>
       </c>
       <c r="J101" s="6">
-        <v>44505</v>
+        <v>44242</v>
       </c>
       <c r="K101" s="4" t="s">
         <v>4</v>
@@ -6019,28 +6028,28 @@
         <v>3</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>210</v>
+        <v>332</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F102" s="6">
-        <v>44517</v>
+        <v>44527</v>
       </c>
       <c r="G102" s="6">
-        <v>44881</v>
+        <v>44892</v>
       </c>
       <c r="H102" s="6">
-        <v>44517</v>
+        <v>44527</v>
       </c>
       <c r="I102" s="6">
-        <v>44517</v>
+        <v>44527</v>
       </c>
       <c r="J102" s="6">
-        <v>44477</v>
+        <v>44505</v>
       </c>
       <c r="K102" s="4" t="s">
         <v>4</v>
@@ -6058,28 +6067,28 @@
         <v>3</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>333</v>
+        <v>210</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>386</v>
+        <v>477</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F103" s="6">
-        <v>44481</v>
+        <v>44517</v>
       </c>
       <c r="G103" s="6">
-        <v>44848</v>
+        <v>44881</v>
       </c>
       <c r="H103" s="6">
-        <v>44481</v>
+        <v>44517</v>
       </c>
       <c r="I103" s="6">
-        <v>44481</v>
+        <v>44517</v>
       </c>
       <c r="J103" s="6">
-        <v>44485</v>
+        <v>44477</v>
       </c>
       <c r="K103" s="4" t="s">
         <v>4</v>
@@ -6094,31 +6103,31 @@
         <v>6</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>203</v>
+        <v>333</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>478</v>
+        <v>386</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F104" s="6">
-        <v>44257</v>
+        <v>44481</v>
       </c>
       <c r="G104" s="6">
-        <v>45347</v>
+        <v>44848</v>
       </c>
       <c r="H104" s="6">
-        <v>43886</v>
+        <v>44481</v>
       </c>
       <c r="I104" s="6">
-        <v>44258</v>
+        <v>44481</v>
       </c>
       <c r="J104" s="6">
-        <v>44260</v>
+        <v>44485</v>
       </c>
       <c r="K104" s="4" t="s">
         <v>4</v>
@@ -6136,28 +6145,28 @@
         <v>5</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>260</v>
+        <v>203</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F105" s="6">
-        <v>44553</v>
+        <v>44257</v>
       </c>
       <c r="G105" s="6">
-        <v>45630</v>
+        <v>45347</v>
       </c>
       <c r="H105" s="6">
-        <v>44169</v>
+        <v>43886</v>
       </c>
       <c r="I105" s="6">
-        <v>44553</v>
+        <v>44258</v>
       </c>
       <c r="J105" s="6">
-        <v>44505</v>
+        <v>44260</v>
       </c>
       <c r="K105" s="4" t="s">
         <v>4</v>
@@ -6175,28 +6184,28 @@
         <v>5</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F106" s="6">
-        <v>44424</v>
+        <v>44553</v>
       </c>
       <c r="G106" s="6">
-        <v>45517</v>
+        <v>45630</v>
       </c>
       <c r="H106" s="6">
-        <v>35291</v>
+        <v>44169</v>
       </c>
       <c r="I106" s="6">
-        <v>44424</v>
+        <v>44553</v>
       </c>
       <c r="J106" s="6">
-        <v>44399</v>
+        <v>44505</v>
       </c>
       <c r="K106" s="4" t="s">
         <v>4</v>
@@ -6214,28 +6223,28 @@
         <v>5</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F107" s="6">
-        <v>44476</v>
+        <v>44424</v>
       </c>
       <c r="G107" s="6">
-        <v>45574</v>
+        <v>45517</v>
       </c>
       <c r="H107" s="6">
-        <v>43017</v>
+        <v>35291</v>
       </c>
       <c r="I107" s="6">
-        <v>44476</v>
+        <v>44424</v>
       </c>
       <c r="J107" s="6">
-        <v>44485</v>
+        <v>44399</v>
       </c>
       <c r="K107" s="4" t="s">
         <v>4</v>
@@ -6253,106 +6262,106 @@
         <v>5</v>
       </c>
       <c r="C108" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F108" s="6">
+        <v>44476</v>
+      </c>
+      <c r="G108" s="6">
+        <v>45574</v>
+      </c>
+      <c r="H108" s="6">
+        <v>43017</v>
+      </c>
+      <c r="I108" s="6">
+        <v>44476</v>
+      </c>
+      <c r="J108" s="6">
+        <v>44485</v>
+      </c>
+      <c r="K108" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L108" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M108" s="1"/>
+    </row>
+    <row r="109" spans="1:13" ht="20.25" customHeight="1">
+      <c r="A109" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="D109" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="E108" s="4" t="s">
+      <c r="E109" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F108" s="6">
+      <c r="F109" s="6">
         <v>44431</v>
       </c>
-      <c r="G108" s="6">
+      <c r="G109" s="6">
         <v>45412</v>
       </c>
-      <c r="H108" s="6">
+      <c r="H109" s="6">
         <v>35186</v>
       </c>
-      <c r="I108" s="6">
+      <c r="I109" s="6">
         <v>44431</v>
       </c>
-      <c r="J108" s="6">
+      <c r="J109" s="6">
         <v>44267</v>
       </c>
-      <c r="K108" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="L108" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M108" s="1"/>
-    </row>
-    <row r="109" spans="1:13" ht="23.25" customHeight="1">
-      <c r="A109" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C109" s="4" t="s">
+      <c r="K109" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L109" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M109" s="1"/>
+    </row>
+    <row r="110" spans="1:13" ht="23.25" customHeight="1">
+      <c r="A110" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="D110" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="E109" s="4" t="s">
+      <c r="E110" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F109" s="6">
+      <c r="F110" s="6">
         <v>44550</v>
       </c>
-      <c r="G109" s="6">
+      <c r="G110" s="6">
         <v>45615</v>
       </c>
-      <c r="H109" s="6">
+      <c r="H110" s="6">
         <v>44154</v>
       </c>
-      <c r="I109" s="6">
+      <c r="I110" s="6">
         <v>44550</v>
       </c>
-      <c r="J109" s="6">
+      <c r="J110" s="6">
         <v>44540</v>
-      </c>
-      <c r="K109" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="L109" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M109" s="1"/>
-    </row>
-    <row r="110" spans="1:13" ht="20.25" customHeight="1">
-      <c r="A110" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F110" s="6">
-        <v>44606</v>
-      </c>
-      <c r="G110" s="6">
-        <v>44971</v>
-      </c>
-      <c r="H110" s="6">
-        <v>44606</v>
-      </c>
-      <c r="I110" s="6">
-        <v>44606</v>
-      </c>
-      <c r="J110" s="6">
-        <v>44536</v>
       </c>
       <c r="K110" s="4" t="s">
         <v>4</v>
@@ -6370,28 +6379,28 @@
         <v>3</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>207</v>
+        <v>335</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F111" s="6">
-        <v>44585</v>
+        <v>44606</v>
       </c>
       <c r="G111" s="6">
-        <v>44950</v>
+        <v>44971</v>
       </c>
       <c r="H111" s="6">
-        <v>44585</v>
+        <v>44606</v>
       </c>
       <c r="I111" s="6">
-        <v>44585</v>
+        <v>44606</v>
       </c>
       <c r="J111" s="6">
-        <v>44552</v>
+        <v>44536</v>
       </c>
       <c r="K111" s="4" t="s">
         <v>4</v>
@@ -6406,31 +6415,31 @@
         <v>6</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>298</v>
+        <v>207</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F112" s="6">
-        <v>44251</v>
+        <v>44585</v>
       </c>
       <c r="G112" s="6">
-        <v>45302</v>
+        <v>44950</v>
       </c>
       <c r="H112" s="6">
-        <v>42777</v>
+        <v>44585</v>
       </c>
       <c r="I112" s="6">
-        <v>44256</v>
+        <v>44585</v>
       </c>
       <c r="J112" s="6">
-        <v>44257</v>
+        <v>44552</v>
       </c>
       <c r="K112" s="4" t="s">
         <v>4</v>
@@ -6448,28 +6457,28 @@
         <v>5</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>554</v>
+        <v>298</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>557</v>
+        <v>486</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F113" s="6">
-        <v>44106</v>
+        <v>44251</v>
       </c>
       <c r="G113" s="6">
-        <v>45182</v>
+        <v>45302</v>
       </c>
       <c r="H113" s="6">
-        <v>43721</v>
+        <v>42777</v>
       </c>
       <c r="I113" s="6">
-        <v>44106</v>
+        <v>44256</v>
       </c>
       <c r="J113" s="6">
-        <v>44105</v>
+        <v>44257</v>
       </c>
       <c r="K113" s="4" t="s">
         <v>4</v>
@@ -6487,26 +6496,28 @@
         <v>5</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>202</v>
+        <v>554</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>362</v>
+        <v>557</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F114" s="6"/>
+        <v>117</v>
+      </c>
+      <c r="F114" s="6">
+        <v>44106</v>
+      </c>
       <c r="G114" s="6">
-        <v>45241</v>
+        <v>45182</v>
       </c>
       <c r="H114" s="6">
-        <v>42685</v>
+        <v>43721</v>
       </c>
       <c r="I114" s="6">
-        <v>44142</v>
+        <v>44106</v>
       </c>
       <c r="J114" s="6">
-        <v>44144</v>
+        <v>44105</v>
       </c>
       <c r="K114" s="4" t="s">
         <v>4</v>
@@ -6524,28 +6535,26 @@
         <v>5</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>270</v>
+        <v>202</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F115" s="6">
-        <v>44111</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="F115" s="6"/>
       <c r="G115" s="6">
-        <v>45199</v>
+        <v>45241</v>
       </c>
       <c r="H115" s="6">
-        <v>42643</v>
+        <v>42685</v>
       </c>
       <c r="I115" s="6">
-        <v>44116</v>
+        <v>44142</v>
       </c>
       <c r="J115" s="6">
-        <v>44117</v>
+        <v>44144</v>
       </c>
       <c r="K115" s="4" t="s">
         <v>4</v>
@@ -6563,28 +6572,28 @@
         <v>5</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>487</v>
+        <v>360</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F116" s="6">
-        <v>43879</v>
+        <v>44111</v>
       </c>
       <c r="G116" s="6">
-        <v>44969</v>
+        <v>45199</v>
       </c>
       <c r="H116" s="6">
-        <v>42412</v>
+        <v>42643</v>
       </c>
       <c r="I116" s="6">
-        <v>43883</v>
+        <v>44116</v>
       </c>
       <c r="J116" s="6">
-        <v>43887</v>
+        <v>44117</v>
       </c>
       <c r="K116" s="4" t="s">
         <v>4</v>
@@ -6602,26 +6611,28 @@
         <v>5</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>387</v>
+        <v>487</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F117" s="6">
-        <v>44171</v>
+        <v>43879</v>
       </c>
       <c r="G117" s="6">
-        <v>45271</v>
-      </c>
-      <c r="H117" s="6"/>
+        <v>44969</v>
+      </c>
+      <c r="H117" s="6">
+        <v>42412</v>
+      </c>
       <c r="I117" s="6">
-        <v>44171</v>
+        <v>43883</v>
       </c>
       <c r="J117" s="6">
-        <v>44172</v>
+        <v>43887</v>
       </c>
       <c r="K117" s="4" t="s">
         <v>4</v>
@@ -6639,28 +6650,26 @@
         <v>5</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>488</v>
+        <v>387</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F118" s="6">
-        <v>43871</v>
+        <v>44171</v>
       </c>
       <c r="G118" s="6">
-        <v>44970</v>
-      </c>
-      <c r="H118" s="6">
-        <v>39126</v>
-      </c>
+        <v>45271</v>
+      </c>
+      <c r="H118" s="6"/>
       <c r="I118" s="6">
-        <v>43871</v>
+        <v>44171</v>
       </c>
       <c r="J118" s="6">
-        <v>43873</v>
+        <v>44172</v>
       </c>
       <c r="K118" s="4" t="s">
         <v>4</v>
@@ -6678,28 +6687,28 @@
         <v>5</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F119" s="6">
-        <v>44151</v>
+        <v>43871</v>
       </c>
       <c r="G119" s="6">
-        <v>45263</v>
+        <v>44970</v>
       </c>
       <c r="H119" s="6">
-        <v>43802</v>
+        <v>39126</v>
       </c>
       <c r="I119" s="6">
-        <v>44155</v>
+        <v>43871</v>
       </c>
       <c r="J119" s="6">
-        <v>44155</v>
+        <v>43873</v>
       </c>
       <c r="K119" s="4" t="s">
         <v>4</v>
@@ -6717,28 +6726,28 @@
         <v>5</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>285</v>
+        <v>337</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>361</v>
+        <v>489</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F120" s="6">
-        <v>43893</v>
+        <v>44151</v>
       </c>
       <c r="G120" s="6">
-        <v>45014</v>
+        <v>45263</v>
       </c>
       <c r="H120" s="6">
-        <v>43553</v>
+        <v>43802</v>
       </c>
       <c r="I120" s="6">
-        <v>43897</v>
+        <v>44155</v>
       </c>
       <c r="J120" s="6">
-        <v>43900</v>
+        <v>44155</v>
       </c>
       <c r="K120" s="4" t="s">
         <v>4</v>
@@ -6756,26 +6765,28 @@
         <v>5</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>213</v>
+        <v>285</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>388</v>
+        <v>361</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F121" s="6">
-        <v>44151</v>
+        <v>43893</v>
       </c>
       <c r="G121" s="6">
-        <v>45229</v>
-      </c>
-      <c r="H121" s="6"/>
+        <v>45014</v>
+      </c>
+      <c r="H121" s="6">
+        <v>43553</v>
+      </c>
       <c r="I121" s="6">
-        <v>44154</v>
+        <v>43897</v>
       </c>
       <c r="J121" s="6">
-        <v>44154</v>
+        <v>43900</v>
       </c>
       <c r="K121" s="4" t="s">
         <v>4</v>
@@ -6793,28 +6804,26 @@
         <v>5</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>490</v>
+        <v>388</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F122" s="6">
-        <v>43854</v>
+        <v>44151</v>
       </c>
       <c r="G122" s="6">
-        <v>44952</v>
-      </c>
-      <c r="H122" s="6">
-        <v>42395</v>
-      </c>
+        <v>45229</v>
+      </c>
+      <c r="H122" s="6"/>
       <c r="I122" s="6">
-        <v>43854</v>
+        <v>44154</v>
       </c>
       <c r="J122" s="6">
-        <v>43845</v>
+        <v>44154</v>
       </c>
       <c r="K122" s="4" t="s">
         <v>4</v>
@@ -6832,28 +6841,28 @@
         <v>5</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F123" s="6">
-        <v>44146</v>
+        <v>43854</v>
       </c>
       <c r="G123" s="6">
-        <v>45260</v>
+        <v>44952</v>
       </c>
       <c r="H123" s="6">
-        <v>38321</v>
+        <v>42395</v>
       </c>
       <c r="I123" s="6">
-        <v>44146</v>
+        <v>43854</v>
       </c>
       <c r="J123" s="6">
-        <v>44148</v>
+        <v>43845</v>
       </c>
       <c r="K123" s="4" t="s">
         <v>4</v>
@@ -6871,28 +6880,28 @@
         <v>5</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>340</v>
+        <v>223</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F124" s="6">
-        <v>43861</v>
+        <v>44146</v>
       </c>
       <c r="G124" s="6">
-        <v>44969</v>
+        <v>45260</v>
       </c>
       <c r="H124" s="6">
-        <v>42412</v>
+        <v>38321</v>
       </c>
       <c r="I124" s="6">
-        <v>43861</v>
+        <v>44146</v>
       </c>
       <c r="J124" s="6">
-        <v>43861</v>
+        <v>44148</v>
       </c>
       <c r="K124" s="4" t="s">
         <v>4</v>
@@ -6910,28 +6919,28 @@
         <v>5</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F125" s="6">
-        <v>43901</v>
+        <v>43861</v>
       </c>
       <c r="G125" s="6">
-        <v>45022</v>
+        <v>44969</v>
       </c>
       <c r="H125" s="6">
-        <v>40274</v>
+        <v>42412</v>
       </c>
       <c r="I125" s="6">
-        <v>43906</v>
+        <v>43861</v>
       </c>
       <c r="J125" s="6">
-        <v>43907</v>
+        <v>43861</v>
       </c>
       <c r="K125" s="4" t="s">
         <v>4</v>
@@ -6949,28 +6958,28 @@
         <v>5</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>263</v>
+        <v>200</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F126" s="6">
-        <v>44095</v>
+        <v>43901</v>
       </c>
       <c r="G126" s="6">
-        <v>45178</v>
+        <v>45022</v>
       </c>
       <c r="H126" s="6">
-        <v>43717</v>
+        <v>40274</v>
       </c>
       <c r="I126" s="6">
-        <v>44100</v>
+        <v>43906</v>
       </c>
       <c r="J126" s="6">
-        <v>44103</v>
+        <v>43907</v>
       </c>
       <c r="K126" s="4" t="s">
         <v>4</v>
@@ -6988,28 +6997,28 @@
         <v>5</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F127" s="6">
-        <v>43901</v>
+        <v>44095</v>
       </c>
       <c r="G127" s="6">
-        <v>45046</v>
+        <v>45178</v>
       </c>
       <c r="H127" s="6">
-        <v>40298</v>
+        <v>43717</v>
       </c>
       <c r="I127" s="6">
-        <v>43906</v>
+        <v>44100</v>
       </c>
       <c r="J127" s="6">
-        <v>43907</v>
+        <v>44103</v>
       </c>
       <c r="K127" s="4" t="s">
         <v>4</v>
@@ -7027,26 +7036,28 @@
         <v>5</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>206</v>
+        <v>288</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>558</v>
+        <v>495</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F128" s="6">
-        <v>44086</v>
+        <v>43901</v>
       </c>
       <c r="G128" s="6">
-        <v>45095</v>
-      </c>
-      <c r="H128" s="6"/>
+        <v>45046</v>
+      </c>
+      <c r="H128" s="6">
+        <v>40298</v>
+      </c>
       <c r="I128" s="6">
-        <v>44081</v>
+        <v>43906</v>
       </c>
       <c r="J128" s="6">
-        <v>44083</v>
+        <v>43907</v>
       </c>
       <c r="K128" s="4" t="s">
         <v>4</v>
@@ -7064,26 +7075,26 @@
         <v>5</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>283</v>
+        <v>206</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>496</v>
+        <v>558</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F129" s="6">
-        <v>44111</v>
+        <v>44086</v>
       </c>
       <c r="G129" s="6">
-        <v>45193</v>
+        <v>45095</v>
       </c>
       <c r="H129" s="6"/>
       <c r="I129" s="6">
-        <v>44111</v>
+        <v>44081</v>
       </c>
       <c r="J129" s="6">
-        <v>44112</v>
+        <v>44083</v>
       </c>
       <c r="K129" s="4" t="s">
         <v>4</v>
@@ -7101,26 +7112,26 @@
         <v>5</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>555</v>
+        <v>283</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>559</v>
+        <v>496</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F130" s="6">
-        <v>44041</v>
+        <v>44111</v>
       </c>
       <c r="G130" s="6">
-        <v>45136</v>
-      </c>
-      <c r="H130" s="6">
-        <v>43675</v>
-      </c>
-      <c r="I130" s="6"/>
+        <v>45193</v>
+      </c>
+      <c r="H130" s="6"/>
+      <c r="I130" s="6">
+        <v>44111</v>
+      </c>
       <c r="J130" s="6">
-        <v>44127</v>
+        <v>44112</v>
       </c>
       <c r="K130" s="4" t="s">
         <v>4</v>
@@ -7138,28 +7149,26 @@
         <v>5</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>341</v>
+        <v>555</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>497</v>
+        <v>559</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F131" s="6">
-        <v>43883</v>
+        <v>44041</v>
       </c>
       <c r="G131" s="6">
-        <v>44995</v>
+        <v>45136</v>
       </c>
       <c r="H131" s="6">
-        <v>40247</v>
-      </c>
-      <c r="I131" s="6">
-        <v>43883</v>
-      </c>
+        <v>43675</v>
+      </c>
+      <c r="I131" s="6"/>
       <c r="J131" s="6">
-        <v>43887</v>
+        <v>44127</v>
       </c>
       <c r="K131" s="4" t="s">
         <v>4</v>
@@ -7177,28 +7186,28 @@
         <v>5</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>234</v>
+        <v>341</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>560</v>
+        <v>497</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F132" s="6">
-        <v>44106</v>
+        <v>43883</v>
       </c>
       <c r="G132" s="6">
-        <v>45088</v>
+        <v>44995</v>
       </c>
       <c r="H132" s="6">
-        <v>43627</v>
+        <v>40247</v>
       </c>
       <c r="I132" s="6">
-        <v>44106</v>
+        <v>43883</v>
       </c>
       <c r="J132" s="6">
-        <v>44105</v>
+        <v>43887</v>
       </c>
       <c r="K132" s="4" t="s">
         <v>4</v>
@@ -7216,28 +7225,28 @@
         <v>5</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>342</v>
+        <v>234</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>498</v>
+        <v>560</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F133" s="6">
-        <v>44169</v>
+        <v>44106</v>
       </c>
       <c r="G133" s="6">
-        <v>45279</v>
+        <v>45088</v>
       </c>
       <c r="H133" s="6">
-        <v>43818</v>
+        <v>43627</v>
       </c>
       <c r="I133" s="6">
-        <v>44169</v>
+        <v>44106</v>
       </c>
       <c r="J133" s="6">
-        <v>44169</v>
+        <v>44105</v>
       </c>
       <c r="K133" s="4" t="s">
         <v>4</v>
@@ -7255,28 +7264,28 @@
         <v>5</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>229</v>
+        <v>342</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>363</v>
+        <v>498</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F134" s="6">
-        <v>44141</v>
+        <v>44169</v>
       </c>
       <c r="G134" s="6">
-        <v>45251</v>
+        <v>45279</v>
       </c>
       <c r="H134" s="6">
-        <v>39407</v>
+        <v>43818</v>
       </c>
       <c r="I134" s="6">
-        <v>44142</v>
+        <v>44169</v>
       </c>
       <c r="J134" s="6">
-        <v>44144</v>
+        <v>44169</v>
       </c>
       <c r="K134" s="4" t="s">
         <v>4</v>
@@ -7294,28 +7303,28 @@
         <v>5</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>343</v>
+        <v>229</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>499</v>
+        <v>363</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F135" s="6">
-        <v>44106</v>
+        <v>44141</v>
       </c>
       <c r="G135" s="6">
-        <v>45181</v>
+        <v>45251</v>
       </c>
       <c r="H135" s="6">
-        <v>42627</v>
+        <v>39407</v>
       </c>
       <c r="I135" s="6">
-        <v>44105</v>
+        <v>44142</v>
       </c>
       <c r="J135" s="6">
-        <v>44105</v>
+        <v>44144</v>
       </c>
       <c r="K135" s="4" t="s">
         <v>4</v>
@@ -7333,28 +7342,28 @@
         <v>5</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>214</v>
+        <v>343</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F136" s="6">
-        <v>43851</v>
+        <v>44106</v>
       </c>
       <c r="G136" s="6">
-        <v>44916</v>
+        <v>45181</v>
       </c>
       <c r="H136" s="6">
-        <v>38342</v>
+        <v>42627</v>
       </c>
       <c r="I136" s="6">
-        <v>43854</v>
+        <v>44105</v>
       </c>
       <c r="J136" s="6">
-        <v>43845</v>
+        <v>44105</v>
       </c>
       <c r="K136" s="4" t="s">
         <v>4</v>
@@ -7372,28 +7381,28 @@
         <v>5</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>344</v>
+        <v>214</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F137" s="6">
-        <v>44111</v>
+        <v>43851</v>
       </c>
       <c r="G137" s="6">
-        <v>45206</v>
+        <v>44916</v>
       </c>
       <c r="H137" s="6">
-        <v>43745</v>
+        <v>38342</v>
       </c>
       <c r="I137" s="6">
-        <v>44111</v>
+        <v>43854</v>
       </c>
       <c r="J137" s="6">
-        <v>44112</v>
+        <v>43845</v>
       </c>
       <c r="K137" s="4" t="s">
         <v>4</v>
@@ -7411,28 +7420,28 @@
         <v>5</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>501</v>
+        <v>389</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F138" s="6">
-        <v>43901</v>
+        <v>44111</v>
       </c>
       <c r="G138" s="6">
-        <v>44993</v>
+        <v>45206</v>
       </c>
       <c r="H138" s="6">
-        <v>43532</v>
+        <v>43745</v>
       </c>
       <c r="I138" s="6">
-        <v>43906</v>
+        <v>44111</v>
       </c>
       <c r="J138" s="6">
-        <v>43907</v>
+        <v>44112</v>
       </c>
       <c r="K138" s="4" t="s">
         <v>4</v>
@@ -7450,21 +7459,23 @@
         <v>5</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>212</v>
+        <v>345</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F139" s="6">
         <v>43901</v>
       </c>
       <c r="G139" s="6">
-        <v>44990</v>
-      </c>
-      <c r="H139" s="6"/>
+        <v>44993</v>
+      </c>
+      <c r="H139" s="6">
+        <v>43532</v>
+      </c>
       <c r="I139" s="6">
         <v>43906</v>
       </c>
@@ -7487,26 +7498,26 @@
         <v>5</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>346</v>
+        <v>212</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F140" s="6">
-        <v>43912</v>
+        <v>43901</v>
       </c>
       <c r="G140" s="6">
-        <v>45054</v>
-      </c>
-      <c r="H140" s="6">
-        <v>43593</v>
-      </c>
-      <c r="I140" s="6"/>
+        <v>44990</v>
+      </c>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6">
+        <v>43906</v>
+      </c>
       <c r="J140" s="6">
-        <v>43969</v>
+        <v>43907</v>
       </c>
       <c r="K140" s="4" t="s">
         <v>4</v>
@@ -7524,28 +7535,26 @@
         <v>5</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>290</v>
+        <v>346</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F141" s="6">
-        <v>43879</v>
+        <v>43912</v>
       </c>
       <c r="G141" s="6">
-        <v>44917</v>
+        <v>45054</v>
       </c>
       <c r="H141" s="6">
-        <v>42360</v>
-      </c>
-      <c r="I141" s="6">
-        <v>43865</v>
-      </c>
+        <v>43593</v>
+      </c>
+      <c r="I141" s="6"/>
       <c r="J141" s="6">
-        <v>43879</v>
+        <v>43969</v>
       </c>
       <c r="K141" s="4" t="s">
         <v>4</v>
@@ -7563,28 +7572,28 @@
         <v>5</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>215</v>
+        <v>290</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F142" s="6">
-        <v>44172</v>
+        <v>43879</v>
       </c>
       <c r="G142" s="6">
-        <v>45203</v>
+        <v>44917</v>
       </c>
       <c r="H142" s="6">
-        <v>43742</v>
+        <v>42360</v>
       </c>
       <c r="I142" s="6">
-        <v>44172</v>
+        <v>43865</v>
       </c>
       <c r="J142" s="6">
-        <v>44172</v>
+        <v>43879</v>
       </c>
       <c r="K142" s="4" t="s">
         <v>4</v>
@@ -7602,28 +7611,28 @@
         <v>5</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>347</v>
+        <v>215</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F143" s="6">
-        <v>44117</v>
+        <v>44172</v>
       </c>
       <c r="G143" s="6">
-        <v>45178</v>
+        <v>45203</v>
       </c>
       <c r="H143" s="6">
-        <v>42622</v>
+        <v>43742</v>
       </c>
       <c r="I143" s="6">
-        <v>44121</v>
+        <v>44172</v>
       </c>
       <c r="J143" s="6">
-        <v>44127</v>
+        <v>44172</v>
       </c>
       <c r="K143" s="4" t="s">
         <v>4</v>
@@ -7641,28 +7650,28 @@
         <v>5</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F144" s="6">
-        <v>44186</v>
+        <v>44117</v>
       </c>
       <c r="G144" s="6">
-        <v>45302</v>
+        <v>45178</v>
       </c>
       <c r="H144" s="6">
-        <v>42746</v>
+        <v>42622</v>
       </c>
       <c r="I144" s="6">
-        <v>44188</v>
+        <v>44121</v>
       </c>
       <c r="J144" s="6">
-        <v>44187</v>
+        <v>44127</v>
       </c>
       <c r="K144" s="4" t="s">
         <v>4</v>
@@ -7680,28 +7689,28 @@
         <v>5</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>274</v>
+        <v>348</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F145" s="6">
-        <v>44152</v>
+        <v>44186</v>
       </c>
       <c r="G145" s="6">
-        <v>45273</v>
+        <v>45302</v>
       </c>
       <c r="H145" s="6">
-        <v>43812</v>
+        <v>42746</v>
       </c>
       <c r="I145" s="6">
-        <v>44154</v>
+        <v>44188</v>
       </c>
       <c r="J145" s="6">
-        <v>44155</v>
+        <v>44187</v>
       </c>
       <c r="K145" s="4" t="s">
         <v>4</v>
@@ -7719,28 +7728,28 @@
         <v>5</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F146" s="6">
-        <v>43879</v>
+        <v>44152</v>
       </c>
       <c r="G146" s="6">
-        <v>44998</v>
+        <v>45273</v>
       </c>
       <c r="H146" s="6">
-        <v>39154</v>
+        <v>43812</v>
       </c>
       <c r="I146" s="6">
-        <v>43882</v>
+        <v>44154</v>
       </c>
       <c r="J146" s="6">
-        <v>43885</v>
+        <v>44155</v>
       </c>
       <c r="K146" s="4" t="s">
         <v>4</v>
@@ -7758,28 +7767,28 @@
         <v>5</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>216</v>
+        <v>296</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F147" s="6">
-        <v>43906</v>
+        <v>43879</v>
       </c>
       <c r="G147" s="6">
-        <v>45028</v>
+        <v>44998</v>
       </c>
       <c r="H147" s="6">
-        <v>43567</v>
+        <v>39154</v>
       </c>
       <c r="I147" s="6">
-        <v>43906</v>
+        <v>43882</v>
       </c>
       <c r="J147" s="6">
-        <v>43907</v>
+        <v>43885</v>
       </c>
       <c r="K147" s="4" t="s">
         <v>4</v>
@@ -7797,28 +7806,28 @@
         <v>5</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>276</v>
+        <v>216</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F148" s="6">
-        <v>44161</v>
+        <v>43906</v>
       </c>
       <c r="G148" s="6">
-        <v>45238</v>
+        <v>45028</v>
       </c>
       <c r="H148" s="6">
-        <v>43777</v>
+        <v>43567</v>
       </c>
       <c r="I148" s="6">
-        <v>44162</v>
+        <v>43906</v>
       </c>
       <c r="J148" s="6">
-        <v>44165</v>
+        <v>43907</v>
       </c>
       <c r="K148" s="4" t="s">
         <v>4</v>
@@ -7836,28 +7845,28 @@
         <v>5</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>349</v>
+        <v>276</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F149" s="6">
-        <v>44153</v>
+        <v>44161</v>
       </c>
       <c r="G149" s="6">
-        <v>45256</v>
+        <v>45238</v>
       </c>
       <c r="H149" s="6">
-        <v>39412</v>
+        <v>43777</v>
       </c>
       <c r="I149" s="6">
-        <v>44155</v>
+        <v>44162</v>
       </c>
       <c r="J149" s="6">
-        <v>44155</v>
+        <v>44165</v>
       </c>
       <c r="K149" s="4" t="s">
         <v>4</v>
@@ -7875,28 +7884,28 @@
         <v>5</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>211</v>
+        <v>349</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F150" s="6">
-        <v>44138</v>
+        <v>44153</v>
       </c>
       <c r="G150" s="6">
-        <v>45182</v>
+        <v>45256</v>
       </c>
       <c r="H150" s="6">
-        <v>43721</v>
+        <v>39412</v>
       </c>
       <c r="I150" s="6">
-        <v>44142</v>
+        <v>44155</v>
       </c>
       <c r="J150" s="6">
-        <v>44144</v>
+        <v>44155</v>
       </c>
       <c r="K150" s="4" t="s">
         <v>4</v>
@@ -7914,28 +7923,28 @@
         <v>5</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>318</v>
+        <v>211</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F151" s="6">
-        <v>44145</v>
+        <v>44138</v>
       </c>
       <c r="G151" s="6">
-        <v>45279</v>
+        <v>45182</v>
       </c>
       <c r="H151" s="6">
-        <v>39435</v>
+        <v>43721</v>
       </c>
       <c r="I151" s="6">
-        <v>44146</v>
+        <v>44142</v>
       </c>
       <c r="J151" s="6">
-        <v>44148</v>
+        <v>44144</v>
       </c>
       <c r="K151" s="4" t="s">
         <v>4</v>
@@ -7953,28 +7962,28 @@
         <v>5</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>205</v>
+        <v>318</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>390</v>
+        <v>514</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F152" s="6">
-        <v>44117</v>
+        <v>44145</v>
       </c>
       <c r="G152" s="6">
-        <v>45224</v>
+        <v>45279</v>
       </c>
       <c r="H152" s="6">
-        <v>39380</v>
+        <v>39435</v>
       </c>
       <c r="I152" s="6">
-        <v>44117</v>
+        <v>44146</v>
       </c>
       <c r="J152" s="6">
-        <v>44131</v>
+        <v>44148</v>
       </c>
       <c r="K152" s="4" t="s">
         <v>4</v>
@@ -7992,28 +8001,28 @@
         <v>5</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>515</v>
+        <v>390</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F153" s="6">
-        <v>43859</v>
+        <v>44117</v>
       </c>
       <c r="G153" s="6">
-        <v>44956</v>
+        <v>45224</v>
       </c>
       <c r="H153" s="6">
-        <v>39112</v>
+        <v>39380</v>
       </c>
       <c r="I153" s="6">
-        <v>43861</v>
+        <v>44117</v>
       </c>
       <c r="J153" s="6">
-        <v>43862</v>
+        <v>44131</v>
       </c>
       <c r="K153" s="4" t="s">
         <v>4</v>
@@ -8031,28 +8040,28 @@
         <v>5</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>341</v>
+        <v>220</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F154" s="6">
-        <v>43883</v>
+        <v>43859</v>
       </c>
       <c r="G154" s="6">
-        <v>44990</v>
+        <v>44956</v>
       </c>
       <c r="H154" s="6">
-        <v>40242</v>
+        <v>39112</v>
       </c>
       <c r="I154" s="6">
-        <v>43883</v>
+        <v>43861</v>
       </c>
       <c r="J154" s="6">
-        <v>43887</v>
+        <v>43862</v>
       </c>
       <c r="K154" s="4" t="s">
         <v>4</v>
@@ -8070,26 +8079,28 @@
         <v>5</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>391</v>
+        <v>516</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F155" s="6">
-        <v>43928</v>
+        <v>43883</v>
       </c>
       <c r="G155" s="6">
-        <v>44998</v>
-      </c>
-      <c r="H155" s="6"/>
+        <v>44990</v>
+      </c>
+      <c r="H155" s="6">
+        <v>40242</v>
+      </c>
       <c r="I155" s="6">
-        <v>43928</v>
+        <v>43883</v>
       </c>
       <c r="J155" s="6">
-        <v>43929</v>
+        <v>43887</v>
       </c>
       <c r="K155" s="4" t="s">
         <v>4</v>
@@ -8107,28 +8118,26 @@
         <v>5</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>517</v>
+        <v>391</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F156" s="6">
-        <v>43955</v>
+        <v>43928</v>
       </c>
       <c r="G156" s="6">
-        <v>45035</v>
-      </c>
-      <c r="H156" s="6">
-        <v>42479</v>
-      </c>
+        <v>44998</v>
+      </c>
+      <c r="H156" s="6"/>
       <c r="I156" s="6">
-        <v>43952</v>
+        <v>43928</v>
       </c>
       <c r="J156" s="6">
-        <v>43955</v>
+        <v>43929</v>
       </c>
       <c r="K156" s="4" t="s">
         <v>4</v>
@@ -8146,28 +8155,28 @@
         <v>5</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>206</v>
+        <v>305</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>364</v>
+        <v>517</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F157" s="6">
-        <v>43859</v>
+        <v>43955</v>
       </c>
       <c r="G157" s="6">
-        <v>44939</v>
+        <v>45035</v>
       </c>
       <c r="H157" s="6">
-        <v>42382</v>
+        <v>42479</v>
       </c>
       <c r="I157" s="6">
-        <v>43861</v>
+        <v>43952</v>
       </c>
       <c r="J157" s="6">
-        <v>43862</v>
+        <v>43955</v>
       </c>
       <c r="K157" s="4" t="s">
         <v>4</v>
@@ -8185,26 +8194,28 @@
         <v>5</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>350</v>
+        <v>206</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>518</v>
+        <v>364</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F158" s="6">
-        <v>43912</v>
+        <v>43859</v>
       </c>
       <c r="G158" s="6">
-        <v>45019</v>
+        <v>44939</v>
       </c>
       <c r="H158" s="6">
-        <v>43558</v>
-      </c>
-      <c r="I158" s="6"/>
+        <v>42382</v>
+      </c>
+      <c r="I158" s="6">
+        <v>43861</v>
+      </c>
       <c r="J158" s="6">
-        <v>43969</v>
+        <v>43862</v>
       </c>
       <c r="K158" s="4" t="s">
         <v>4</v>
@@ -8222,28 +8233,26 @@
         <v>5</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>278</v>
+        <v>350</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F159" s="6">
-        <v>44176</v>
+        <v>43912</v>
       </c>
       <c r="G159" s="6">
-        <v>45260</v>
+        <v>45019</v>
       </c>
       <c r="H159" s="6">
-        <v>39416</v>
-      </c>
-      <c r="I159" s="6">
-        <v>44177</v>
-      </c>
+        <v>43558</v>
+      </c>
+      <c r="I159" s="6"/>
       <c r="J159" s="6">
-        <v>44176</v>
+        <v>43969</v>
       </c>
       <c r="K159" s="4" t="s">
         <v>4</v>
@@ -8261,26 +8270,28 @@
         <v>5</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>351</v>
+        <v>278</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F160" s="6">
-        <v>44111</v>
+        <v>44176</v>
       </c>
       <c r="G160" s="6">
-        <v>45210</v>
-      </c>
-      <c r="H160" s="6"/>
+        <v>45260</v>
+      </c>
+      <c r="H160" s="6">
+        <v>39416</v>
+      </c>
       <c r="I160" s="6">
-        <v>44111</v>
+        <v>44177</v>
       </c>
       <c r="J160" s="6">
-        <v>44112</v>
+        <v>44176</v>
       </c>
       <c r="K160" s="4" t="s">
         <v>4</v>
@@ -8298,26 +8309,26 @@
         <v>5</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>206</v>
+        <v>351</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>365</v>
+        <v>520</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="F161" s="6"/>
+        <v>164</v>
+      </c>
+      <c r="F161" s="6">
+        <v>44111</v>
+      </c>
       <c r="G161" s="6">
-        <v>45108</v>
-      </c>
-      <c r="H161" s="6">
-        <v>43647</v>
-      </c>
+        <v>45210</v>
+      </c>
+      <c r="H161" s="6"/>
       <c r="I161" s="6">
-        <v>44034</v>
+        <v>44111</v>
       </c>
       <c r="J161" s="6">
-        <v>44036</v>
+        <v>44112</v>
       </c>
       <c r="K161" s="4" t="s">
         <v>4</v>
@@ -8335,28 +8346,26 @@
         <v>5</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>352</v>
+        <v>206</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>521</v>
+        <v>365</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F162" s="6">
-        <v>43879</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="F162" s="6"/>
       <c r="G162" s="6">
-        <v>44993</v>
+        <v>45108</v>
       </c>
       <c r="H162" s="6">
-        <v>43532</v>
+        <v>43647</v>
       </c>
       <c r="I162" s="6">
-        <v>43883</v>
+        <v>44034</v>
       </c>
       <c r="J162" s="6">
-        <v>43887</v>
+        <v>44036</v>
       </c>
       <c r="K162" s="4" t="s">
         <v>4</v>
@@ -8374,28 +8383,28 @@
         <v>5</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>269</v>
+        <v>352</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F163" s="6">
-        <v>44110</v>
+        <v>43879</v>
       </c>
       <c r="G163" s="6">
-        <v>45214</v>
+        <v>44993</v>
       </c>
       <c r="H163" s="6">
-        <v>38275</v>
+        <v>43532</v>
       </c>
       <c r="I163" s="6">
-        <v>44110</v>
+        <v>43883</v>
       </c>
       <c r="J163" s="6">
-        <v>44112</v>
+        <v>43887</v>
       </c>
       <c r="K163" s="4" t="s">
         <v>4</v>
@@ -8413,26 +8422,28 @@
         <v>5</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F164" s="6"/>
+        <v>167</v>
+      </c>
+      <c r="F164" s="6">
+        <v>44110</v>
+      </c>
       <c r="G164" s="6">
-        <v>45273</v>
+        <v>45214</v>
       </c>
       <c r="H164" s="6">
-        <v>43812</v>
+        <v>38275</v>
       </c>
       <c r="I164" s="6">
-        <v>44142</v>
+        <v>44110</v>
       </c>
       <c r="J164" s="6">
-        <v>44144</v>
+        <v>44112</v>
       </c>
       <c r="K164" s="4" t="s">
         <v>4</v>
@@ -8450,28 +8461,26 @@
         <v>5</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>318</v>
+        <v>244</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>366</v>
+        <v>523</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F165" s="6">
-        <v>44145</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="F165" s="6"/>
       <c r="G165" s="6">
-        <v>45279</v>
+        <v>45273</v>
       </c>
       <c r="H165" s="6">
-        <v>39435</v>
+        <v>43812</v>
       </c>
       <c r="I165" s="6">
-        <v>44146</v>
+        <v>44142</v>
       </c>
       <c r="J165" s="6">
-        <v>44148</v>
+        <v>44144</v>
       </c>
       <c r="K165" s="4" t="s">
         <v>4</v>
@@ -8486,31 +8495,31 @@
         <v>6</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>235</v>
+        <v>318</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>524</v>
+        <v>366</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F166" s="6">
-        <v>44182</v>
+        <v>44145</v>
       </c>
       <c r="G166" s="6">
-        <v>45319</v>
+        <v>45279</v>
       </c>
       <c r="H166" s="6">
-        <v>44182</v>
+        <v>39435</v>
       </c>
       <c r="I166" s="6">
-        <v>44182</v>
+        <v>44146</v>
       </c>
       <c r="J166" s="6">
-        <v>44183</v>
+        <v>44148</v>
       </c>
       <c r="K166" s="4" t="s">
         <v>4</v>
@@ -8525,31 +8534,31 @@
         <v>6</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>353</v>
+        <v>235</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F167" s="6">
-        <v>43860</v>
+        <v>44182</v>
       </c>
       <c r="G167" s="6">
-        <v>44953</v>
+        <v>45319</v>
       </c>
       <c r="H167" s="6">
-        <v>40205</v>
+        <v>44182</v>
       </c>
       <c r="I167" s="6">
-        <v>43864</v>
+        <v>44182</v>
       </c>
       <c r="J167" s="6">
-        <v>43861</v>
+        <v>44183</v>
       </c>
       <c r="K167" s="4" t="s">
         <v>4</v>
@@ -8567,23 +8576,25 @@
         <v>5</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>242</v>
+        <v>353</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F168" s="6">
-        <v>43858</v>
+        <v>43860</v>
       </c>
       <c r="G168" s="6">
-        <v>44916</v>
-      </c>
-      <c r="H168" s="6"/>
+        <v>44953</v>
+      </c>
+      <c r="H168" s="6">
+        <v>40205</v>
+      </c>
       <c r="I168" s="6">
-        <v>43861</v>
+        <v>43864</v>
       </c>
       <c r="J168" s="6">
         <v>43861</v>
@@ -8604,28 +8615,26 @@
         <v>5</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>367</v>
+        <v>526</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F169" s="6">
-        <v>44105</v>
+        <v>43858</v>
       </c>
       <c r="G169" s="6">
-        <v>45145</v>
-      </c>
-      <c r="H169" s="6">
-        <v>43684</v>
-      </c>
+        <v>44916</v>
+      </c>
+      <c r="H169" s="6"/>
       <c r="I169" s="6">
-        <v>44105</v>
+        <v>43861</v>
       </c>
       <c r="J169" s="6">
-        <v>44105</v>
+        <v>43861</v>
       </c>
       <c r="K169" s="4" t="s">
         <v>4</v>
@@ -8643,28 +8652,28 @@
         <v>5</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>527</v>
+        <v>367</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F170" s="6">
-        <v>44131</v>
+        <v>44105</v>
       </c>
       <c r="G170" s="6">
-        <v>45214</v>
+        <v>45145</v>
       </c>
       <c r="H170" s="6">
-        <v>43753</v>
+        <v>43684</v>
       </c>
       <c r="I170" s="6">
-        <v>44131</v>
+        <v>44105</v>
       </c>
       <c r="J170" s="6">
-        <v>44131</v>
+        <v>44105</v>
       </c>
       <c r="K170" s="4" t="s">
         <v>4</v>
@@ -8682,28 +8691,28 @@
         <v>5</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>561</v>
+        <v>527</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F171" s="6">
-        <v>44124</v>
+        <v>44131</v>
       </c>
       <c r="G171" s="6">
-        <v>45230</v>
+        <v>45214</v>
       </c>
       <c r="H171" s="6">
-        <v>42674</v>
+        <v>43753</v>
       </c>
       <c r="I171" s="6">
-        <v>44124</v>
+        <v>44131</v>
       </c>
       <c r="J171" s="6">
-        <v>44127</v>
+        <v>44131</v>
       </c>
       <c r="K171" s="4" t="s">
         <v>4</v>
@@ -8721,28 +8730,28 @@
         <v>5</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>354</v>
+        <v>272</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>368</v>
+        <v>561</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F172" s="6">
-        <v>44139</v>
+        <v>44124</v>
       </c>
       <c r="G172" s="6">
-        <v>45232</v>
+        <v>45230</v>
       </c>
       <c r="H172" s="6">
-        <v>39388</v>
+        <v>42674</v>
       </c>
       <c r="I172" s="6">
-        <v>44142</v>
+        <v>44124</v>
       </c>
       <c r="J172" s="6">
-        <v>44144</v>
+        <v>44127</v>
       </c>
       <c r="K172" s="4" t="s">
         <v>4</v>
@@ -8760,28 +8769,28 @@
         <v>5</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>303</v>
+        <v>354</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>528</v>
+        <v>368</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F173" s="6">
-        <v>43866</v>
+        <v>44139</v>
       </c>
       <c r="G173" s="6">
-        <v>44978</v>
+        <v>45232</v>
       </c>
       <c r="H173" s="6">
-        <v>43517</v>
+        <v>39388</v>
       </c>
       <c r="I173" s="6">
-        <v>43866</v>
+        <v>44142</v>
       </c>
       <c r="J173" s="6">
-        <v>43874</v>
+        <v>44144</v>
       </c>
       <c r="K173" s="4" t="s">
         <v>4</v>
@@ -8799,26 +8808,28 @@
         <v>5</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>208</v>
+        <v>303</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>369</v>
+        <v>528</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F174" s="6">
-        <v>44131</v>
+        <v>43866</v>
       </c>
       <c r="G174" s="6">
-        <v>45202</v>
-      </c>
-      <c r="H174" s="6"/>
+        <v>44978</v>
+      </c>
+      <c r="H174" s="6">
+        <v>43517</v>
+      </c>
       <c r="I174" s="6">
-        <v>44131</v>
+        <v>43866</v>
       </c>
       <c r="J174" s="6">
-        <v>44131</v>
+        <v>43874</v>
       </c>
       <c r="K174" s="4" t="s">
         <v>4</v>
@@ -8836,106 +8847,104 @@
         <v>5</v>
       </c>
       <c r="C175" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F175" s="6">
+        <v>44131</v>
+      </c>
+      <c r="G175" s="6">
+        <v>45202</v>
+      </c>
+      <c r="H175" s="6"/>
+      <c r="I175" s="6">
+        <v>44131</v>
+      </c>
+      <c r="J175" s="6">
+        <v>44131</v>
+      </c>
+      <c r="K175" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L175" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M175" s="1"/>
+    </row>
+    <row r="176" spans="1:13" ht="20.25" customHeight="1">
+      <c r="A176" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C176" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="D175" s="4" t="s">
+      <c r="D176" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="E175" s="4" t="s">
+      <c r="E176" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="F175" s="6">
+      <c r="F176" s="6">
         <v>44167</v>
       </c>
-      <c r="G175" s="6">
+      <c r="G176" s="6">
         <v>45282</v>
       </c>
-      <c r="H175" s="6">
+      <c r="H176" s="6">
         <v>36152</v>
       </c>
-      <c r="I175" s="6">
+      <c r="I176" s="6">
         <v>44169</v>
       </c>
-      <c r="J175" s="6">
+      <c r="J176" s="6">
         <v>44172</v>
       </c>
-      <c r="K175" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="L175" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M175" s="1"/>
-    </row>
-    <row r="176" spans="1:13" ht="23.25" customHeight="1">
-      <c r="A176" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C176" s="4" t="s">
+      <c r="K176" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L176" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M176" s="1"/>
+    </row>
+    <row r="177" spans="1:13" ht="23.25" customHeight="1">
+      <c r="A177" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C177" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="D176" s="4" t="s">
+      <c r="D177" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="E176" s="4" t="s">
+      <c r="E177" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="F176" s="6">
+      <c r="F177" s="6">
         <v>44111</v>
       </c>
-      <c r="G176" s="6">
+      <c r="G177" s="6">
         <v>45203</v>
       </c>
-      <c r="H176" s="6">
+      <c r="H177" s="6">
         <v>43742</v>
       </c>
-      <c r="I176" s="6">
+      <c r="I177" s="6">
         <v>44111</v>
       </c>
-      <c r="J176" s="6">
+      <c r="J177" s="6">
         <v>44151</v>
-      </c>
-      <c r="K176" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="L176" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M176" s="1"/>
-    </row>
-    <row r="177" spans="1:13" ht="20.25" customHeight="1">
-      <c r="A177" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="D177" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="E177" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="F177" s="6">
-        <v>44179</v>
-      </c>
-      <c r="G177" s="6">
-        <v>45146</v>
-      </c>
-      <c r="H177" s="6">
-        <v>42590</v>
-      </c>
-      <c r="I177" s="6">
-        <v>44186</v>
-      </c>
-      <c r="J177" s="6">
-        <v>44186</v>
       </c>
       <c r="K177" s="4" t="s">
         <v>4</v>
@@ -8953,26 +8962,28 @@
         <v>5</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>281</v>
+        <v>338</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>370</v>
+        <v>531</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F178" s="6">
-        <v>44018</v>
+        <v>44179</v>
       </c>
       <c r="G178" s="6">
-        <v>45089</v>
-      </c>
-      <c r="H178" s="6"/>
+        <v>45146</v>
+      </c>
+      <c r="H178" s="6">
+        <v>42590</v>
+      </c>
       <c r="I178" s="6">
-        <v>43286</v>
+        <v>44186</v>
       </c>
       <c r="J178" s="6">
-        <v>44020</v>
+        <v>44186</v>
       </c>
       <c r="K178" s="4" t="s">
         <v>4</v>
@@ -8990,28 +9001,26 @@
         <v>5</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>355</v>
+        <v>281</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F179" s="6">
-        <v>44158</v>
+        <v>44018</v>
       </c>
       <c r="G179" s="6">
-        <v>45272</v>
-      </c>
-      <c r="H179" s="6">
-        <v>43811</v>
-      </c>
+        <v>45089</v>
+      </c>
+      <c r="H179" s="6"/>
       <c r="I179" s="6">
-        <v>44158</v>
+        <v>43286</v>
       </c>
       <c r="J179" s="6">
-        <v>44159</v>
+        <v>44020</v>
       </c>
       <c r="K179" s="4" t="s">
         <v>4</v>
@@ -9029,28 +9038,28 @@
         <v>5</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>211</v>
+        <v>355</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>562</v>
+        <v>371</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F180" s="6">
-        <v>44111</v>
+        <v>44158</v>
       </c>
       <c r="G180" s="6">
-        <v>45182</v>
+        <v>45272</v>
       </c>
       <c r="H180" s="6">
-        <v>43721</v>
+        <v>43811</v>
       </c>
       <c r="I180" s="6">
-        <v>44111</v>
+        <v>44158</v>
       </c>
       <c r="J180" s="6">
-        <v>44158</v>
+        <v>44159</v>
       </c>
       <c r="K180" s="4" t="s">
         <v>4</v>
@@ -9068,28 +9077,28 @@
         <v>5</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>372</v>
+        <v>562</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F181" s="6">
-        <v>43901</v>
+        <v>44111</v>
       </c>
       <c r="G181" s="6">
-        <v>44999</v>
+        <v>45182</v>
       </c>
       <c r="H181" s="6">
-        <v>42443</v>
+        <v>43721</v>
       </c>
       <c r="I181" s="6">
-        <v>43906</v>
+        <v>44111</v>
       </c>
       <c r="J181" s="6">
-        <v>43907</v>
+        <v>44158</v>
       </c>
       <c r="K181" s="4" t="s">
         <v>4</v>
@@ -9107,26 +9116,28 @@
         <v>5</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>356</v>
+        <v>237</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>532</v>
+        <v>372</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F182" s="6">
-        <v>43859</v>
+        <v>43901</v>
       </c>
       <c r="G182" s="6">
-        <v>44903</v>
-      </c>
-      <c r="H182" s="6"/>
+        <v>44999</v>
+      </c>
+      <c r="H182" s="6">
+        <v>42443</v>
+      </c>
       <c r="I182" s="6">
-        <v>43861</v>
+        <v>43906</v>
       </c>
       <c r="J182" s="6">
-        <v>43861</v>
+        <v>43907</v>
       </c>
       <c r="K182" s="4" t="s">
         <v>4</v>
@@ -9144,28 +9155,26 @@
         <v>5</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F183" s="6">
-        <v>43912</v>
+        <v>43859</v>
       </c>
       <c r="G183" s="6">
-        <v>45005</v>
-      </c>
-      <c r="H183" s="6">
-        <v>43544</v>
-      </c>
+        <v>44903</v>
+      </c>
+      <c r="H183" s="6"/>
       <c r="I183" s="6">
-        <v>43908</v>
+        <v>43861</v>
       </c>
       <c r="J183" s="6">
-        <v>43969</v>
+        <v>43861</v>
       </c>
       <c r="K183" s="4" t="s">
         <v>4</v>
@@ -9183,28 +9192,28 @@
         <v>5</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>283</v>
+        <v>339</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>373</v>
+        <v>533</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F184" s="6">
-        <v>43859</v>
+        <v>43912</v>
       </c>
       <c r="G184" s="6">
-        <v>44968</v>
+        <v>45005</v>
       </c>
       <c r="H184" s="6">
-        <v>42411</v>
+        <v>43544</v>
       </c>
       <c r="I184" s="6">
-        <v>43861</v>
+        <v>43908</v>
       </c>
       <c r="J184" s="6">
-        <v>43861</v>
+        <v>43969</v>
       </c>
       <c r="K184" s="4" t="s">
         <v>4</v>
@@ -9222,28 +9231,28 @@
         <v>5</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>563</v>
+        <v>373</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F185" s="6">
-        <v>44139</v>
+        <v>43859</v>
       </c>
       <c r="G185" s="6">
-        <v>45204</v>
+        <v>44968</v>
       </c>
       <c r="H185" s="6">
-        <v>42648</v>
+        <v>42411</v>
       </c>
       <c r="I185" s="6">
-        <v>44142</v>
+        <v>43861</v>
       </c>
       <c r="J185" s="6">
-        <v>44144</v>
+        <v>43861</v>
       </c>
       <c r="K185" s="4" t="s">
         <v>4</v>
@@ -9261,28 +9270,28 @@
         <v>5</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>534</v>
+        <v>563</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F186" s="6">
-        <v>43906</v>
+        <v>44139</v>
       </c>
       <c r="G186" s="6">
-        <v>44979</v>
+        <v>45204</v>
       </c>
       <c r="H186" s="6">
-        <v>38405</v>
+        <v>42648</v>
       </c>
       <c r="I186" s="6">
-        <v>43906</v>
+        <v>44142</v>
       </c>
       <c r="J186" s="6">
-        <v>44001</v>
+        <v>44144</v>
       </c>
       <c r="K186" s="4" t="s">
         <v>4</v>
@@ -9300,26 +9309,28 @@
         <v>5</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>286</v>
+        <v>200</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F187" s="6">
-        <v>43941</v>
+        <v>43906</v>
       </c>
       <c r="G187" s="6">
-        <v>45082</v>
-      </c>
-      <c r="H187" s="6"/>
+        <v>44979</v>
+      </c>
+      <c r="H187" s="6">
+        <v>38405</v>
+      </c>
       <c r="I187" s="6">
-        <v>43937</v>
+        <v>43906</v>
       </c>
       <c r="J187" s="6">
-        <v>43941</v>
+        <v>44001</v>
       </c>
       <c r="K187" s="4" t="s">
         <v>4</v>
@@ -9337,28 +9348,26 @@
         <v>5</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>357</v>
+        <v>286</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F188" s="6">
-        <v>44174</v>
+        <v>43941</v>
       </c>
       <c r="G188" s="6">
-        <v>45311</v>
-      </c>
-      <c r="H188" s="6">
-        <v>43850</v>
-      </c>
+        <v>45082</v>
+      </c>
+      <c r="H188" s="6"/>
       <c r="I188" s="6">
-        <v>44176</v>
+        <v>43937</v>
       </c>
       <c r="J188" s="6">
-        <v>44176</v>
+        <v>43941</v>
       </c>
       <c r="K188" s="4" t="s">
         <v>4</v>
@@ -9376,28 +9385,28 @@
         <v>5</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>279</v>
+        <v>357</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F189" s="6">
-        <v>44153</v>
+        <v>44174</v>
       </c>
       <c r="G189" s="6">
-        <v>45261</v>
+        <v>45311</v>
       </c>
       <c r="H189" s="6">
-        <v>42705</v>
+        <v>43850</v>
       </c>
       <c r="I189" s="6">
-        <v>44155</v>
+        <v>44176</v>
       </c>
       <c r="J189" s="6">
-        <v>44155</v>
+        <v>44176</v>
       </c>
       <c r="K189" s="4" t="s">
         <v>4</v>
@@ -9415,28 +9424,28 @@
         <v>5</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F190" s="6">
-        <v>43861</v>
+        <v>44153</v>
       </c>
       <c r="G190" s="6">
-        <v>44985</v>
+        <v>45261</v>
       </c>
       <c r="H190" s="6">
-        <v>43493</v>
+        <v>42705</v>
       </c>
       <c r="I190" s="6">
-        <v>43861</v>
+        <v>44155</v>
       </c>
       <c r="J190" s="6">
-        <v>43862</v>
+        <v>44155</v>
       </c>
       <c r="K190" s="4" t="s">
         <v>4</v>
@@ -9454,28 +9463,28 @@
         <v>5</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F191" s="6">
-        <v>43893</v>
+        <v>43861</v>
       </c>
       <c r="G191" s="6">
-        <v>44993</v>
+        <v>44985</v>
       </c>
       <c r="H191" s="6">
-        <v>43532</v>
+        <v>43493</v>
       </c>
       <c r="I191" s="6">
-        <v>43897</v>
+        <v>43861</v>
       </c>
       <c r="J191" s="6">
-        <v>43900</v>
+        <v>43862</v>
       </c>
       <c r="K191" s="4" t="s">
         <v>4</v>
@@ -9493,26 +9502,28 @@
         <v>5</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F192" s="6">
-        <v>44117</v>
+        <v>43893</v>
       </c>
       <c r="G192" s="6">
-        <v>45234</v>
-      </c>
-      <c r="H192" s="6"/>
+        <v>44993</v>
+      </c>
+      <c r="H192" s="6">
+        <v>43532</v>
+      </c>
       <c r="I192" s="6">
-        <v>44117</v>
+        <v>43897</v>
       </c>
       <c r="J192" s="6">
-        <v>44127</v>
+        <v>43900</v>
       </c>
       <c r="K192" s="4" t="s">
         <v>4</v>
@@ -9530,28 +9541,26 @@
         <v>5</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F193" s="6">
-        <v>43893</v>
+        <v>44117</v>
       </c>
       <c r="G193" s="6">
-        <v>44999</v>
-      </c>
-      <c r="H193" s="6">
-        <v>39155</v>
-      </c>
+        <v>45234</v>
+      </c>
+      <c r="H193" s="6"/>
       <c r="I193" s="6">
-        <v>43897</v>
+        <v>44117</v>
       </c>
       <c r="J193" s="6">
-        <v>43900</v>
+        <v>44127</v>
       </c>
       <c r="K193" s="4" t="s">
         <v>4</v>
@@ -9566,43 +9575,82 @@
         <v>6</v>
       </c>
       <c r="B194" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F194" s="6">
+        <v>43893</v>
+      </c>
+      <c r="G194" s="6">
+        <v>44999</v>
+      </c>
+      <c r="H194" s="6">
+        <v>39155</v>
+      </c>
+      <c r="I194" s="6">
+        <v>43897</v>
+      </c>
+      <c r="J194" s="6">
+        <v>43900</v>
+      </c>
+      <c r="K194" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L194" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M194" s="1"/>
+    </row>
+    <row r="195" spans="1:13" ht="20.25" customHeight="1">
+      <c r="A195" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B195" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C194" s="4" t="s">
+      <c r="C195" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="D194" s="4" t="s">
+      <c r="D195" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="E194" s="4" t="s">
+      <c r="E195" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F194" s="6">
+      <c r="F195" s="6">
         <v>44148</v>
       </c>
-      <c r="G194" s="6">
+      <c r="G195" s="6">
         <v>45248</v>
       </c>
-      <c r="H194" s="6">
+      <c r="H195" s="6">
         <v>44148</v>
       </c>
-      <c r="I194" s="6">
+      <c r="I195" s="6">
         <v>44154</v>
       </c>
-      <c r="J194" s="6">
+      <c r="J195" s="6">
         <v>44154</v>
       </c>
-      <c r="K194" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="L194" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M194" s="1"/>
+      <c r="K195" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L195" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M195" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:L194" xr:uid="{30CB67BA-7BC3-49C3-93B3-4CE0E9C80113}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:L194">
+  <autoFilter ref="A2:L195" xr:uid="{30CB67BA-7BC3-49C3-93B3-4CE0E9C80113}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:L195">
       <sortCondition ref="A2"/>
     </sortState>
   </autoFilter>
